--- a/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
+++ b/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Documents\GitHub\MCU_2023\22KW-Dyno - MCU\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="217">
   <si>
     <t>版本</t>
   </si>
@@ -264,10 +264,6 @@
   </si>
   <si>
     <t>unit32</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Byte 3</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -423,10 +419,6 @@
       </rPr>
       <t>Gear Position Cmd</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Byte 2 bit20</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -1417,14 +1409,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>02N.m</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0-7D0)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>LSB</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -1558,6 +1542,66 @@
       <t>0x6~0x7:Reserved</t>
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factor;02N.m</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3 7D 17 53 00 00 00 00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3 7D B7 53 00 00 00 00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3 7D 07 53 00 00 00 00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 7D 07 53 00 00 00 00</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>7D</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  B 7</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>send 1.0N.m</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1740,7 +1784,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1828,6 +1872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,7 +2058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2174,6 +2224,24 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2268,22 +2336,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2314,15 +2382,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>99750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2346,8 +2414,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2457450" y="11763375"/>
+          <a:off x="276225" y="12849225"/>
           <a:ext cx="10058400" cy="5852850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13354050" y="6781800"/>
+          <a:ext cx="10058400" cy="5448300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2668,13 +2780,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="64" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2683,111 +2795,111 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
     </row>
@@ -2823,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ58"/>
+  <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2976,16 +3088,16 @@
       <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -3019,28 +3131,26 @@
       <c r="AQ10" s="10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="78">
+      <c r="A11" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="84"/>
+      <c r="C11" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="85">
         <v>1</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="79">
-        <v>1</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="E11" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -3074,18 +3184,18 @@
       <c r="AQ11" s="11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3119,28 +3229,26 @@
       <c r="AQ12" s="11"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="78">
-        <v>9</v>
-      </c>
-      <c r="C13" s="77" t="s">
+      <c r="A13" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="85">
         <v>1</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="E13" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3174,18 +3282,18 @@
       <c r="AQ13" s="11"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3219,28 +3327,26 @@
       <c r="AQ14" s="11"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="78">
-        <v>97</v>
-      </c>
-      <c r="C15" s="77" t="s">
+      <c r="A15" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="91">
         <v>4</v>
       </c>
-      <c r="E15" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="E15" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -3274,18 +3380,18 @@
       <c r="AQ15" s="11"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="67"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -3319,28 +3425,26 @@
       <c r="AQ16" s="11"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="78">
-        <v>193</v>
-      </c>
-      <c r="C17" s="77" t="s">
+      <c r="A17" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="84"/>
+      <c r="C17" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="91">
         <v>1</v>
       </c>
-      <c r="E17" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
+      <c r="E17" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -3374,18 +3478,18 @@
       <c r="AQ17" s="11"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -3419,28 +3523,26 @@
       <c r="AQ18" s="11"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="78" t="s">
+      <c r="A19" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="91">
         <v>1</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="E19" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -3474,18 +3576,18 @@
       <c r="AQ19" s="11"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -3519,28 +3621,26 @@
       <c r="AQ20" s="11"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -3574,18 +3674,18 @@
       <c r="AQ21" s="12"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -3646,7 +3746,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3664,7 +3764,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3677,73 +3777,75 @@
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>60</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="93" t="s">
+        <v>206</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="69" t="s">
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="69" t="s">
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="70"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="69" t="s">
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="70"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="69" t="s">
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="77"/>
+      <c r="AI30" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="70"/>
-      <c r="AN30" s="70"/>
-      <c r="AO30" s="70"/>
-      <c r="AP30" s="71"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="77"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="94" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="4">
@@ -3794,49 +3896,49 @@
       <c r="R31" s="4">
         <v>15</v>
       </c>
-      <c r="S31" s="14">
+      <c r="S31" s="4">
         <v>16</v>
       </c>
       <c r="T31" s="4">
         <v>17</v>
       </c>
-      <c r="U31" s="14">
+      <c r="U31" s="4">
         <v>18</v>
       </c>
       <c r="V31" s="4">
         <v>19</v>
       </c>
-      <c r="W31" s="14">
+      <c r="W31" s="4">
         <v>20</v>
       </c>
       <c r="X31" s="4">
         <v>21</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y31" s="4">
         <v>22</v>
       </c>
       <c r="Z31" s="4">
         <v>23</v>
       </c>
-      <c r="AA31" s="14">
+      <c r="AA31" s="4">
         <v>24</v>
       </c>
       <c r="AB31" s="4">
         <v>25</v>
       </c>
-      <c r="AC31" s="14">
+      <c r="AC31" s="4">
         <v>26</v>
       </c>
       <c r="AD31" s="4">
         <v>27</v>
       </c>
-      <c r="AE31" s="14">
+      <c r="AE31" s="4">
         <v>28</v>
       </c>
       <c r="AF31" s="4">
         <v>29</v>
       </c>
-      <c r="AG31" s="14">
+      <c r="AG31" s="4">
         <v>30</v>
       </c>
       <c r="AH31" s="4">
@@ -3869,7 +3971,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="75"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="52">
         <v>1</v>
       </c>
@@ -3918,52 +4020,52 @@
       <c r="R32" s="4">
         <v>0</v>
       </c>
-      <c r="S32" s="14">
-        <v>0</v>
-      </c>
-      <c r="T32" s="14">
-        <v>0</v>
-      </c>
-      <c r="U32" s="14">
-        <v>0</v>
-      </c>
-      <c r="V32" s="14">
-        <v>0</v>
-      </c>
-      <c r="W32" s="14">
-        <v>0</v>
-      </c>
-      <c r="X32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="89">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="90">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="90">
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="59">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="59">
         <v>0</v>
       </c>
       <c r="AI32" s="4"/>
@@ -3975,1857 +4077,2168 @@
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
     </row>
-    <row r="33" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95">
+        <v>53</v>
+      </c>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="95"/>
+      <c r="AO33" s="95"/>
+      <c r="AP33" s="95"/>
+    </row>
+    <row r="34" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="21" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A36" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="77"/>
+      <c r="AA36" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="77"/>
+      <c r="AI36" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="77"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="B37" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4">
+        <v>6</v>
+      </c>
+      <c r="J37" s="4">
+        <v>7</v>
+      </c>
+      <c r="K37" s="4">
+        <v>8</v>
+      </c>
+      <c r="L37" s="4">
+        <v>9</v>
+      </c>
+      <c r="M37" s="4">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4">
+        <v>11</v>
+      </c>
+      <c r="O37" s="4">
+        <v>12</v>
+      </c>
+      <c r="P37" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>14</v>
+      </c>
+      <c r="R37" s="4">
+        <v>15</v>
+      </c>
+      <c r="S37" s="14">
+        <v>16</v>
+      </c>
+      <c r="T37" s="4">
+        <v>17</v>
+      </c>
+      <c r="U37" s="14">
+        <v>18</v>
+      </c>
+      <c r="V37" s="4">
+        <v>19</v>
+      </c>
+      <c r="W37" s="14">
+        <v>20</v>
+      </c>
+      <c r="X37" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>23</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>24</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>26</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>27</v>
+      </c>
+      <c r="AE37" s="14">
+        <v>28</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>29</v>
+      </c>
+      <c r="AG37" s="14">
+        <v>30</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>31</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>32</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>33</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>34</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>35</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>36</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>37</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>38</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="52">
+        <v>1</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1</v>
+      </c>
+      <c r="E38" s="53">
+        <v>0</v>
+      </c>
+      <c r="F38" s="53">
+        <v>0</v>
+      </c>
+      <c r="G38" s="54">
+        <v>0</v>
+      </c>
+      <c r="H38" s="54">
+        <v>0</v>
+      </c>
+      <c r="I38" s="54">
+        <v>1</v>
+      </c>
+      <c r="J38" s="55">
+        <v>1</v>
+      </c>
+      <c r="K38" s="57">
+        <v>0</v>
+      </c>
+      <c r="L38" s="57">
+        <v>0</v>
+      </c>
+      <c r="M38" s="57">
+        <v>0</v>
+      </c>
+      <c r="N38" s="57">
+        <v>0</v>
+      </c>
+      <c r="O38" s="57">
+        <v>0</v>
+      </c>
+      <c r="P38" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="57">
+        <v>0</v>
+      </c>
+      <c r="R38" s="57">
+        <v>0</v>
+      </c>
+      <c r="S38" s="14">
+        <v>0</v>
+      </c>
+      <c r="T38" s="14">
+        <v>0</v>
+      </c>
+      <c r="U38" s="14">
+        <v>0</v>
+      </c>
+      <c r="V38" s="14">
+        <v>0</v>
+      </c>
+      <c r="W38" s="14">
+        <v>0</v>
+      </c>
+      <c r="X38" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67">
+        <v>53</v>
+      </c>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+    </row>
+    <row r="40" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:42" ht="21" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="96"/>
+      <c r="Y40" s="96"/>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="96"/>
+      <c r="AC40" s="96"/>
+      <c r="AD40" s="96"/>
+      <c r="AE40" s="96"/>
+      <c r="AF40" s="96"/>
+      <c r="AG40" s="96"/>
+      <c r="AH40" s="96"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X41" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A42" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C42" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="69" t="s">
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="69" t="s">
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70"/>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="70"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="69" t="s">
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="AB35" s="70"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="70"/>
-      <c r="AE35" s="70"/>
-      <c r="AF35" s="70"/>
-      <c r="AG35" s="70"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="69" t="s">
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="77"/>
+      <c r="AI42" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="70"/>
-      <c r="AM35" s="70"/>
-      <c r="AN35" s="70"/>
-      <c r="AO35" s="70"/>
-      <c r="AP35" s="71"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="74" t="s">
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="76"/>
+      <c r="AL42" s="76"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="77"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E43" s="4">
         <v>2</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F43" s="4">
         <v>3</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G43" s="4">
         <v>4</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H43" s="4">
         <v>5</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I43" s="4">
         <v>6</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J43" s="4">
         <v>7</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K43" s="4">
         <v>8</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L43" s="4">
         <v>9</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M43" s="4">
         <v>10</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N43" s="4">
         <v>11</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O43" s="4">
         <v>12</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P43" s="4">
         <v>13</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q43" s="4">
         <v>14</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R43" s="4">
         <v>15</v>
       </c>
-      <c r="S36" s="14">
+      <c r="S43" s="14">
         <v>16</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T43" s="4">
         <v>17</v>
       </c>
-      <c r="U36" s="14">
+      <c r="U43" s="14">
         <v>18</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V43" s="4">
         <v>19</v>
       </c>
-      <c r="W36" s="14">
+      <c r="W43" s="14">
         <v>20</v>
       </c>
-      <c r="X36" s="4">
+      <c r="X43" s="4">
         <v>21</v>
       </c>
-      <c r="Y36" s="14">
+      <c r="Y43" s="14">
         <v>22</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="Z43" s="4">
         <v>23</v>
       </c>
-      <c r="AA36" s="14">
+      <c r="AA43" s="14">
         <v>24</v>
       </c>
-      <c r="AB36" s="4">
+      <c r="AB43" s="4">
         <v>25</v>
       </c>
-      <c r="AC36" s="14">
+      <c r="AC43" s="14">
         <v>26</v>
       </c>
-      <c r="AD36" s="4">
+      <c r="AD43" s="4">
         <v>27</v>
       </c>
-      <c r="AE36" s="14">
+      <c r="AE43" s="14">
         <v>28</v>
       </c>
-      <c r="AF36" s="4">
+      <c r="AF43" s="4">
         <v>29</v>
       </c>
-      <c r="AG36" s="14">
+      <c r="AG43" s="14">
         <v>30</v>
       </c>
-      <c r="AH36" s="4">
+      <c r="AH43" s="4">
         <v>31</v>
       </c>
-      <c r="AI36" s="4">
+      <c r="AI43" s="4">
         <v>32</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AJ43" s="4">
         <v>33</v>
       </c>
-      <c r="AK36" s="4">
+      <c r="AK43" s="4">
         <v>34</v>
       </c>
-      <c r="AL36" s="4">
+      <c r="AL43" s="4">
         <v>35</v>
       </c>
-      <c r="AM36" s="4">
+      <c r="AM43" s="4">
         <v>36</v>
       </c>
-      <c r="AN36" s="4">
+      <c r="AN43" s="4">
         <v>37</v>
       </c>
-      <c r="AO36" s="4">
+      <c r="AO43" s="4">
         <v>38</v>
       </c>
-      <c r="AP36" s="4">
+      <c r="AP43" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="52">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="52">
         <v>1</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D44" s="53">
         <v>1</v>
       </c>
-      <c r="E37" s="53">
-        <v>0</v>
-      </c>
-      <c r="F37" s="53">
-        <v>0</v>
-      </c>
-      <c r="G37" s="54">
-        <v>0</v>
-      </c>
-      <c r="H37" s="54">
-        <v>0</v>
-      </c>
-      <c r="I37" s="54">
+      <c r="E44" s="53">
+        <v>0</v>
+      </c>
+      <c r="F44" s="53">
+        <v>0</v>
+      </c>
+      <c r="G44" s="54">
+        <v>0</v>
+      </c>
+      <c r="H44" s="54">
+        <v>0</v>
+      </c>
+      <c r="I44" s="54">
         <v>1</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J44" s="55">
         <v>1</v>
       </c>
-      <c r="K37" s="87">
-        <v>0</v>
-      </c>
-      <c r="L37" s="87">
-        <v>0</v>
-      </c>
-      <c r="M37" s="87">
-        <v>0</v>
-      </c>
-      <c r="N37" s="87">
-        <v>0</v>
-      </c>
-      <c r="O37" s="87">
-        <v>0</v>
-      </c>
-      <c r="P37" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="87">
-        <v>0</v>
-      </c>
-      <c r="R37" s="87">
-        <v>0</v>
-      </c>
-      <c r="S37" s="14">
-        <v>0</v>
-      </c>
-      <c r="T37" s="14">
-        <v>0</v>
-      </c>
-      <c r="U37" s="14">
-        <v>0</v>
-      </c>
-      <c r="V37" s="14">
-        <v>0</v>
-      </c>
-      <c r="W37" s="14">
-        <v>0</v>
-      </c>
-      <c r="X37" s="91">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="91">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="91">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="90">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="90">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-    </row>
-    <row r="38" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="K44" s="57">
+        <v>0</v>
+      </c>
+      <c r="L44" s="57">
+        <v>0</v>
+      </c>
+      <c r="M44" s="57">
+        <v>0</v>
+      </c>
+      <c r="N44" s="57">
+        <v>0</v>
+      </c>
+      <c r="O44" s="57">
+        <v>0</v>
+      </c>
+      <c r="P44" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="57">
+        <v>0</v>
+      </c>
+      <c r="R44" s="57">
+        <v>0</v>
+      </c>
+      <c r="S44" s="14">
+        <v>0</v>
+      </c>
+      <c r="T44" s="14">
+        <v>0</v>
+      </c>
+      <c r="U44" s="14">
+        <v>0</v>
+      </c>
+      <c r="V44" s="14">
+        <v>0</v>
+      </c>
+      <c r="W44" s="98">
+        <v>1</v>
+      </c>
+      <c r="X44" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67">
+        <v>53</v>
+      </c>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="67"/>
+      <c r="AF45" s="67"/>
+      <c r="AG45" s="67"/>
+      <c r="AH45" s="67"/>
+      <c r="AI45" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ45" s="67"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="67"/>
+      <c r="AM45" s="67"/>
+      <c r="AN45" s="67"/>
+      <c r="AO45" s="67"/>
+      <c r="AP45" s="67"/>
+    </row>
+    <row r="46" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="88"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2" t="s">
+    </row>
+    <row r="47" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A48" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="78"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="78"/>
+      <c r="AF48" s="78"/>
+      <c r="AG48" s="78"/>
+      <c r="AH48" s="78"/>
+      <c r="AI48" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ48" s="78"/>
+      <c r="AK48" s="78"/>
+      <c r="AL48" s="78"/>
+      <c r="AM48" s="78"/>
+      <c r="AN48" s="78"/>
+      <c r="AO48" s="78"/>
+      <c r="AP48" s="78"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3</v>
+      </c>
+      <c r="G49" s="4">
+        <v>4</v>
+      </c>
+      <c r="H49" s="4">
+        <v>5</v>
+      </c>
+      <c r="I49" s="4">
+        <v>6</v>
+      </c>
+      <c r="J49" s="4">
+        <v>7</v>
+      </c>
+      <c r="K49" s="4">
+        <v>8</v>
+      </c>
+      <c r="L49" s="4">
+        <v>9</v>
+      </c>
+      <c r="M49" s="4">
+        <v>10</v>
+      </c>
+      <c r="N49" s="4">
+        <v>11</v>
+      </c>
+      <c r="O49" s="4">
+        <v>12</v>
+      </c>
+      <c r="P49" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>14</v>
+      </c>
+      <c r="R49" s="4">
+        <v>15</v>
+      </c>
+      <c r="S49" s="14">
+        <v>16</v>
+      </c>
+      <c r="T49" s="4">
+        <v>17</v>
+      </c>
+      <c r="U49" s="14">
+        <v>18</v>
+      </c>
+      <c r="V49" s="4">
+        <v>19</v>
+      </c>
+      <c r="W49" s="14">
+        <v>20</v>
+      </c>
+      <c r="X49" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="14">
+        <v>22</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>23</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>24</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC49" s="14">
+        <v>26</v>
+      </c>
+      <c r="AD49" s="4">
         <v>27</v>
       </c>
-      <c r="X39" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="76"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="76"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="76"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB40" s="70"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="70"/>
-      <c r="AE40" s="70"/>
-      <c r="AF40" s="70"/>
-      <c r="AG40" s="70"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ40" s="70"/>
-      <c r="AK40" s="70"/>
-      <c r="AL40" s="70"/>
-      <c r="AM40" s="70"/>
-      <c r="AN40" s="70"/>
-      <c r="AO40" s="70"/>
-      <c r="AP40" s="71"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>3</v>
-      </c>
-      <c r="G41" s="4">
-        <v>4</v>
-      </c>
-      <c r="H41" s="4">
-        <v>5</v>
-      </c>
-      <c r="I41" s="4">
-        <v>6</v>
-      </c>
-      <c r="J41" s="4">
-        <v>7</v>
-      </c>
-      <c r="K41" s="4">
-        <v>8</v>
-      </c>
-      <c r="L41" s="4">
-        <v>9</v>
-      </c>
-      <c r="M41" s="4">
-        <v>10</v>
-      </c>
-      <c r="N41" s="4">
-        <v>11</v>
-      </c>
-      <c r="O41" s="4">
-        <v>12</v>
-      </c>
-      <c r="P41" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>14</v>
-      </c>
-      <c r="R41" s="4">
-        <v>15</v>
-      </c>
-      <c r="S41" s="14">
-        <v>16</v>
-      </c>
-      <c r="T41" s="4">
-        <v>17</v>
-      </c>
-      <c r="U41" s="14">
-        <v>18</v>
-      </c>
-      <c r="V41" s="4">
-        <v>19</v>
-      </c>
-      <c r="W41" s="14">
-        <v>20</v>
-      </c>
-      <c r="X41" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="14">
-        <v>22</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>23</v>
-      </c>
-      <c r="AA41" s="14">
-        <v>24</v>
-      </c>
-      <c r="AB41" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC41" s="14">
-        <v>26</v>
-      </c>
-      <c r="AD41" s="4">
-        <v>27</v>
-      </c>
-      <c r="AE41" s="14">
+      <c r="AE49" s="14">
         <v>28</v>
       </c>
-      <c r="AF41" s="4">
+      <c r="AF49" s="4">
         <v>29</v>
       </c>
-      <c r="AG41" s="14">
+      <c r="AG49" s="14">
         <v>30</v>
       </c>
-      <c r="AH41" s="4">
+      <c r="AH49" s="4">
         <v>31</v>
       </c>
-      <c r="AI41" s="4">
+      <c r="AI49" s="4">
         <v>32</v>
       </c>
-      <c r="AJ41" s="4">
+      <c r="AJ49" s="4">
         <v>33</v>
       </c>
-      <c r="AK41" s="4">
+      <c r="AK49" s="4">
         <v>34</v>
       </c>
-      <c r="AL41" s="4">
+      <c r="AL49" s="4">
         <v>35</v>
       </c>
-      <c r="AM41" s="4">
+      <c r="AM49" s="4">
         <v>36</v>
       </c>
-      <c r="AN41" s="4">
+      <c r="AN49" s="4">
         <v>37</v>
       </c>
-      <c r="AO41" s="4">
+      <c r="AO49" s="4">
         <v>38</v>
       </c>
-      <c r="AP41" s="4">
+      <c r="AP49" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="52">
-        <v>1</v>
-      </c>
-      <c r="D42" s="53">
-        <v>1</v>
-      </c>
-      <c r="E42" s="53">
-        <v>0</v>
-      </c>
-      <c r="F42" s="53">
-        <v>0</v>
-      </c>
-      <c r="G42" s="54">
-        <v>0</v>
-      </c>
-      <c r="H42" s="54">
-        <v>0</v>
-      </c>
-      <c r="I42" s="54">
-        <v>1</v>
-      </c>
-      <c r="J42" s="55">
-        <v>1</v>
-      </c>
-      <c r="K42" s="87">
-        <v>0</v>
-      </c>
-      <c r="L42" s="87">
-        <v>0</v>
-      </c>
-      <c r="M42" s="87">
-        <v>0</v>
-      </c>
-      <c r="N42" s="87">
-        <v>0</v>
-      </c>
-      <c r="O42" s="87">
-        <v>0</v>
-      </c>
-      <c r="P42" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="87">
-        <v>0</v>
-      </c>
-      <c r="R42" s="87">
-        <v>0</v>
-      </c>
-      <c r="S42" s="14">
-        <v>0</v>
-      </c>
-      <c r="T42" s="14">
-        <v>0</v>
-      </c>
-      <c r="U42" s="14">
-        <v>0</v>
-      </c>
-      <c r="V42" s="14">
-        <v>0</v>
-      </c>
-      <c r="W42" s="56">
-        <v>1</v>
-      </c>
-      <c r="X42" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="90">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="90">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="4"/>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="4"/>
-    </row>
-    <row r="43" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="2"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="72"/>
-      <c r="Y45" s="72"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB45" s="72"/>
-      <c r="AC45" s="72"/>
-      <c r="AD45" s="72"/>
-      <c r="AE45" s="72"/>
-      <c r="AF45" s="72"/>
-      <c r="AG45" s="72"/>
-      <c r="AH45" s="72"/>
-      <c r="AI45" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ45" s="72"/>
-      <c r="AK45" s="72"/>
-      <c r="AL45" s="72"/>
-      <c r="AM45" s="72"/>
-      <c r="AN45" s="72"/>
-      <c r="AO45" s="72"/>
-      <c r="AP45" s="72"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-      <c r="F46" s="4">
-        <v>3</v>
-      </c>
-      <c r="G46" s="4">
-        <v>4</v>
-      </c>
-      <c r="H46" s="4">
-        <v>5</v>
-      </c>
-      <c r="I46" s="4">
-        <v>6</v>
-      </c>
-      <c r="J46" s="4">
-        <v>7</v>
-      </c>
-      <c r="K46" s="4">
-        <v>8</v>
-      </c>
-      <c r="L46" s="4">
-        <v>9</v>
-      </c>
-      <c r="M46" s="4">
-        <v>10</v>
-      </c>
-      <c r="N46" s="4">
-        <v>11</v>
-      </c>
-      <c r="O46" s="4">
-        <v>12</v>
-      </c>
-      <c r="P46" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>14</v>
-      </c>
-      <c r="R46" s="4">
-        <v>15</v>
-      </c>
-      <c r="S46" s="14">
-        <v>16</v>
-      </c>
-      <c r="T46" s="4">
-        <v>17</v>
-      </c>
-      <c r="U46" s="14">
-        <v>18</v>
-      </c>
-      <c r="V46" s="4">
-        <v>19</v>
-      </c>
-      <c r="W46" s="14">
-        <v>20</v>
-      </c>
-      <c r="X46" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y46" s="14">
-        <v>22</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>23</v>
-      </c>
-      <c r="AA46" s="14">
-        <v>24</v>
-      </c>
-      <c r="AB46" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC46" s="14">
-        <v>26</v>
-      </c>
-      <c r="AD46" s="4">
-        <v>27</v>
-      </c>
-      <c r="AE46" s="14">
-        <v>28</v>
-      </c>
-      <c r="AF46" s="4">
-        <v>29</v>
-      </c>
-      <c r="AG46" s="14">
-        <v>30</v>
-      </c>
-      <c r="AH46" s="4">
-        <v>31</v>
-      </c>
-      <c r="AI46" s="4">
-        <v>32</v>
-      </c>
-      <c r="AJ46" s="4">
-        <v>33</v>
-      </c>
-      <c r="AK46" s="4">
-        <v>34</v>
-      </c>
-      <c r="AL46" s="4">
-        <v>35</v>
-      </c>
-      <c r="AM46" s="4">
-        <v>36</v>
-      </c>
-      <c r="AN46" s="4">
-        <v>37</v>
-      </c>
-      <c r="AO46" s="4">
-        <v>38</v>
-      </c>
-      <c r="AP46" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="52">
-        <v>1</v>
-      </c>
-      <c r="D47" s="53">
-        <v>1</v>
-      </c>
-      <c r="E47" s="53">
-        <v>0</v>
-      </c>
-      <c r="F47" s="53">
-        <v>0</v>
-      </c>
-      <c r="G47" s="54">
-        <v>0</v>
-      </c>
-      <c r="H47" s="54">
-        <v>0</v>
-      </c>
-      <c r="I47" s="54">
-        <v>1</v>
-      </c>
-      <c r="J47" s="55">
-        <v>1</v>
-      </c>
-      <c r="K47" s="87">
-        <v>0</v>
-      </c>
-      <c r="L47" s="87">
-        <v>1</v>
-      </c>
-      <c r="M47" s="87">
-        <v>0</v>
-      </c>
-      <c r="N47" s="87">
-        <v>1</v>
-      </c>
-      <c r="O47" s="87">
-        <v>1</v>
-      </c>
-      <c r="P47" s="87">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="87">
-        <v>1</v>
-      </c>
-      <c r="R47" s="87">
-        <v>1</v>
-      </c>
-      <c r="S47" s="14">
-        <v>0</v>
-      </c>
-      <c r="T47" s="14">
-        <v>0</v>
-      </c>
-      <c r="U47" s="14">
-        <v>0</v>
-      </c>
-      <c r="V47" s="14">
-        <v>0</v>
-      </c>
-      <c r="W47" s="56">
-        <v>1</v>
-      </c>
-      <c r="X47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="90">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="90">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="4"/>
-      <c r="AO47" s="4"/>
-      <c r="AP47" s="4"/>
-    </row>
-    <row r="48" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="92"/>
-      <c r="AB48" s="92"/>
-      <c r="AC48" s="92"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="92"/>
-      <c r="AF48" s="92"/>
-      <c r="AG48" s="92"/>
-      <c r="AH48" s="92"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="6"/>
-      <c r="AM48" s="6"/>
-      <c r="AN48" s="6"/>
-      <c r="AO48" s="6"/>
-      <c r="AP48" s="6"/>
-    </row>
-    <row r="49" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X49" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-      <c r="AF49" s="73"/>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
-      <c r="X50" s="72"/>
-      <c r="Y50" s="72"/>
-      <c r="Z50" s="72"/>
-      <c r="AA50" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB50" s="72"/>
-      <c r="AC50" s="72"/>
-      <c r="AD50" s="72"/>
-      <c r="AE50" s="72"/>
-      <c r="AF50" s="72"/>
-      <c r="AG50" s="72"/>
-      <c r="AH50" s="72"/>
-      <c r="AI50" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ50" s="72"/>
-      <c r="AK50" s="72"/>
-      <c r="AL50" s="72"/>
-      <c r="AM50" s="72"/>
-      <c r="AN50" s="72"/>
-      <c r="AO50" s="72"/>
-      <c r="AP50" s="72"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="52">
+        <v>1</v>
+      </c>
+      <c r="D50" s="53">
+        <v>1</v>
+      </c>
+      <c r="E50" s="53">
+        <v>0</v>
+      </c>
+      <c r="F50" s="53">
+        <v>0</v>
+      </c>
+      <c r="G50" s="54">
+        <v>0</v>
+      </c>
+      <c r="H50" s="54">
+        <v>0</v>
+      </c>
+      <c r="I50" s="54">
+        <v>1</v>
+      </c>
+      <c r="J50" s="55">
+        <v>1</v>
+      </c>
+      <c r="K50" s="57">
+        <v>1</v>
+      </c>
+      <c r="L50" s="57">
+        <v>0</v>
+      </c>
+      <c r="M50" s="57">
+        <v>1</v>
+      </c>
+      <c r="N50" s="57">
+        <v>1</v>
+      </c>
+      <c r="O50" s="57">
+        <v>1</v>
+      </c>
+      <c r="P50" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="57">
+        <v>1</v>
+      </c>
+      <c r="R50" s="57">
+        <v>0</v>
+      </c>
+      <c r="S50" s="14">
+        <v>0</v>
+      </c>
+      <c r="T50" s="14">
+        <v>0</v>
+      </c>
+      <c r="U50" s="14">
+        <v>0</v>
+      </c>
+      <c r="V50" s="14">
+        <v>0</v>
+      </c>
+      <c r="W50" s="56">
+        <v>1</v>
+      </c>
+      <c r="X50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
+      <c r="AK50" s="4"/>
+      <c r="AL50" s="4"/>
+      <c r="AM50" s="4"/>
+      <c r="AN50" s="4"/>
+      <c r="AO50" s="4"/>
+      <c r="AP50" s="4"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4">
-        <v>3</v>
-      </c>
-      <c r="G51" s="4">
-        <v>4</v>
-      </c>
-      <c r="H51" s="4">
-        <v>5</v>
-      </c>
-      <c r="I51" s="4">
-        <v>6</v>
-      </c>
-      <c r="J51" s="4">
-        <v>7</v>
-      </c>
-      <c r="K51" s="4">
-        <v>8</v>
-      </c>
-      <c r="L51" s="4">
-        <v>9</v>
-      </c>
-      <c r="M51" s="4">
-        <v>10</v>
-      </c>
-      <c r="N51" s="4">
-        <v>11</v>
-      </c>
-      <c r="O51" s="4">
-        <v>12</v>
-      </c>
-      <c r="P51" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>14</v>
-      </c>
-      <c r="R51" s="4">
-        <v>15</v>
-      </c>
-      <c r="S51" s="14">
-        <v>16</v>
-      </c>
-      <c r="T51" s="4">
-        <v>17</v>
-      </c>
-      <c r="U51" s="14">
-        <v>18</v>
-      </c>
-      <c r="V51" s="4">
-        <v>19</v>
-      </c>
-      <c r="W51" s="14">
-        <v>20</v>
-      </c>
-      <c r="X51" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y51" s="14">
-        <v>22</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>23</v>
-      </c>
-      <c r="AA51" s="14">
-        <v>24</v>
-      </c>
-      <c r="AB51" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC51" s="14">
-        <v>26</v>
-      </c>
-      <c r="AD51" s="4">
-        <v>27</v>
-      </c>
-      <c r="AE51" s="14">
-        <v>28</v>
-      </c>
-      <c r="AF51" s="4">
-        <v>29</v>
-      </c>
-      <c r="AG51" s="14">
-        <v>30</v>
-      </c>
-      <c r="AH51" s="4">
-        <v>31</v>
-      </c>
-      <c r="AI51" s="4">
-        <v>32</v>
-      </c>
-      <c r="AJ51" s="4">
-        <v>33</v>
-      </c>
-      <c r="AK51" s="4">
-        <v>34</v>
-      </c>
-      <c r="AL51" s="4">
-        <v>35</v>
-      </c>
-      <c r="AM51" s="4">
-        <v>36</v>
-      </c>
-      <c r="AN51" s="4">
-        <v>37</v>
-      </c>
-      <c r="AO51" s="4">
-        <v>38</v>
-      </c>
-      <c r="AP51" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="53">
-        <v>1</v>
-      </c>
-      <c r="E52" s="53">
-        <v>0</v>
-      </c>
-      <c r="F52" s="53">
-        <v>0</v>
-      </c>
-      <c r="G52" s="54">
-        <v>0</v>
-      </c>
-      <c r="H52" s="54">
-        <v>0</v>
-      </c>
-      <c r="I52" s="54">
-        <v>1</v>
-      </c>
-      <c r="J52" s="55">
-        <v>1</v>
-      </c>
-      <c r="K52" s="87">
-        <v>0</v>
-      </c>
-      <c r="L52" s="87">
-        <v>0</v>
-      </c>
-      <c r="M52" s="87">
-        <v>0</v>
-      </c>
-      <c r="N52" s="87">
-        <v>0</v>
-      </c>
-      <c r="O52" s="87">
-        <v>0</v>
-      </c>
-      <c r="P52" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="87">
-        <v>0</v>
-      </c>
-      <c r="R52" s="87">
-        <v>0</v>
-      </c>
-      <c r="S52" s="14">
-        <v>0</v>
-      </c>
-      <c r="T52" s="14">
-        <v>0</v>
-      </c>
-      <c r="U52" s="14">
-        <v>0</v>
-      </c>
-      <c r="V52" s="14">
-        <v>0</v>
-      </c>
-      <c r="W52" s="56">
-        <v>1</v>
-      </c>
-      <c r="X52" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="90">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="90">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67">
+        <v>53</v>
+      </c>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="67"/>
+      <c r="AE51" s="67"/>
+      <c r="AF51" s="67"/>
+      <c r="AG51" s="67"/>
+      <c r="AH51" s="67"/>
+      <c r="AI51" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ51" s="67"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="67"/>
+      <c r="AN51" s="67"/>
+      <c r="AO51" s="67"/>
+      <c r="AP51" s="67"/>
+    </row>
+    <row r="52" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
     </row>
     <row r="53" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:42" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X53" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+      <c r="AA53" s="79"/>
+      <c r="AB53" s="79"/>
+      <c r="AC53" s="79"/>
+      <c r="AD53" s="79"/>
+      <c r="AE53" s="79"/>
+      <c r="AF53" s="79"/>
+      <c r="AG53" s="79"/>
+      <c r="AH53" s="79"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A54" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="76"/>
+      <c r="X54" s="76"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="77"/>
+      <c r="AA54" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB54" s="76"/>
+      <c r="AC54" s="76"/>
+      <c r="AD54" s="76"/>
+      <c r="AE54" s="76"/>
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="76"/>
+      <c r="AH54" s="77"/>
+      <c r="AI54" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ54" s="76"/>
+      <c r="AK54" s="76"/>
+      <c r="AL54" s="76"/>
+      <c r="AM54" s="76"/>
+      <c r="AN54" s="76"/>
+      <c r="AO54" s="76"/>
+      <c r="AP54" s="77"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4">
+        <v>6</v>
+      </c>
+      <c r="J55" s="4">
+        <v>7</v>
+      </c>
+      <c r="K55" s="4">
+        <v>8</v>
+      </c>
+      <c r="L55" s="4">
+        <v>9</v>
+      </c>
+      <c r="M55" s="4">
+        <v>10</v>
+      </c>
+      <c r="N55" s="4">
+        <v>11</v>
+      </c>
+      <c r="O55" s="4">
+        <v>12</v>
+      </c>
+      <c r="P55" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>14</v>
+      </c>
+      <c r="R55" s="4">
+        <v>15</v>
+      </c>
+      <c r="S55" s="14">
+        <v>16</v>
+      </c>
+      <c r="T55" s="4">
+        <v>17</v>
+      </c>
+      <c r="U55" s="14">
+        <v>18</v>
+      </c>
+      <c r="V55" s="4">
+        <v>19</v>
+      </c>
+      <c r="W55" s="14">
+        <v>20</v>
+      </c>
+      <c r="X55" s="4">
         <v>21</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="Y55" s="14">
         <v>22</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72" t="s">
+      <c r="Z55" s="4">
         <v>23</v>
       </c>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72" t="s">
+      <c r="AA55" s="14">
         <v>24</v>
       </c>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
-      <c r="Z55" s="72"/>
-      <c r="AA55" s="72" t="s">
+      <c r="AB55" s="4">
         <v>25</v>
       </c>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="72"/>
-      <c r="AE55" s="72"/>
-      <c r="AF55" s="72"/>
-      <c r="AG55" s="72"/>
-      <c r="AH55" s="72"/>
-      <c r="AI55" s="72" t="s">
+      <c r="AC55" s="14">
         <v>26</v>
       </c>
-      <c r="AJ55" s="72"/>
-      <c r="AK55" s="72"/>
-      <c r="AL55" s="72"/>
-      <c r="AM55" s="72"/>
-      <c r="AN55" s="72"/>
-      <c r="AO55" s="72"/>
-      <c r="AP55" s="72"/>
+      <c r="AD55" s="4">
+        <v>27</v>
+      </c>
+      <c r="AE55" s="14">
+        <v>28</v>
+      </c>
+      <c r="AF55" s="4">
+        <v>29</v>
+      </c>
+      <c r="AG55" s="14">
+        <v>30</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>31</v>
+      </c>
+      <c r="AI55" s="4">
+        <v>32</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>33</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>34</v>
+      </c>
+      <c r="AL55" s="4">
+        <v>35</v>
+      </c>
+      <c r="AM55" s="4">
+        <v>36</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>37</v>
+      </c>
+      <c r="AO55" s="4">
+        <v>38</v>
+      </c>
+      <c r="AP55" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="74" t="s">
+      <c r="B56" s="97"/>
+      <c r="C56" s="52">
+        <v>1</v>
+      </c>
+      <c r="D56" s="53">
+        <v>1</v>
+      </c>
+      <c r="E56" s="53">
+        <v>0</v>
+      </c>
+      <c r="F56" s="53">
+        <v>0</v>
+      </c>
+      <c r="G56" s="54">
+        <v>0</v>
+      </c>
+      <c r="H56" s="54">
+        <v>0</v>
+      </c>
+      <c r="I56" s="54">
+        <v>1</v>
+      </c>
+      <c r="J56" s="55">
+        <v>1</v>
+      </c>
+      <c r="K56" s="57">
+        <v>0</v>
+      </c>
+      <c r="L56" s="57">
+        <v>0</v>
+      </c>
+      <c r="M56" s="57">
+        <v>0</v>
+      </c>
+      <c r="N56" s="57">
+        <v>0</v>
+      </c>
+      <c r="O56" s="57">
+        <v>0</v>
+      </c>
+      <c r="P56" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="57">
+        <v>0</v>
+      </c>
+      <c r="R56" s="57">
+        <v>0</v>
+      </c>
+      <c r="S56" s="14">
+        <v>0</v>
+      </c>
+      <c r="T56" s="14">
+        <v>0</v>
+      </c>
+      <c r="U56" s="14">
+        <v>0</v>
+      </c>
+      <c r="V56" s="14">
+        <v>0</v>
+      </c>
+      <c r="W56" s="98">
+        <v>1</v>
+      </c>
+      <c r="X56" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="60">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="60">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="4"/>
+      <c r="AO56" s="4"/>
+      <c r="AP56" s="4"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A57" s="62"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="67"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="67"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67">
+        <v>53</v>
+      </c>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
+      <c r="AE57" s="67"/>
+      <c r="AF57" s="67"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="67"/>
+      <c r="AM57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AO57" s="67"/>
+      <c r="AP57" s="67"/>
+    </row>
+    <row r="58" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A60" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="78"/>
+      <c r="X60" s="78"/>
+      <c r="Y60" s="78"/>
+      <c r="Z60" s="78"/>
+      <c r="AA60" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB60" s="78"/>
+      <c r="AC60" s="78"/>
+      <c r="AD60" s="78"/>
+      <c r="AE60" s="78"/>
+      <c r="AF60" s="78"/>
+      <c r="AG60" s="78"/>
+      <c r="AH60" s="78"/>
+      <c r="AI60" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ60" s="78"/>
+      <c r="AK60" s="78"/>
+      <c r="AL60" s="78"/>
+      <c r="AM60" s="78"/>
+      <c r="AN60" s="78"/>
+      <c r="AO60" s="78"/>
+      <c r="AP60" s="78"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E61" s="4">
         <v>2</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F61" s="4">
         <v>3</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G61" s="4">
         <v>4</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H61" s="4">
         <v>5</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I61" s="4">
         <v>6</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J61" s="4">
         <v>7</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K61" s="4">
         <v>8</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L61" s="4">
         <v>9</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M61" s="4">
         <v>10</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N61" s="4">
         <v>11</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O61" s="4">
         <v>12</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P61" s="4">
         <v>13</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q61" s="4">
         <v>14</v>
       </c>
-      <c r="R56" s="4">
+      <c r="R61" s="4">
         <v>15</v>
       </c>
-      <c r="S56" s="14">
+      <c r="S61" s="14">
         <v>16</v>
       </c>
-      <c r="T56" s="4">
+      <c r="T61" s="4">
         <v>17</v>
       </c>
-      <c r="U56" s="14">
+      <c r="U61" s="14">
         <v>18</v>
       </c>
-      <c r="V56" s="4">
+      <c r="V61" s="4">
         <v>19</v>
       </c>
-      <c r="W56" s="14">
+      <c r="W61" s="14">
         <v>20</v>
       </c>
-      <c r="X56" s="4">
+      <c r="X61" s="4">
         <v>21</v>
       </c>
-      <c r="Y56" s="14">
+      <c r="Y61" s="14">
         <v>22</v>
       </c>
-      <c r="Z56" s="4">
+      <c r="Z61" s="4">
         <v>23</v>
       </c>
-      <c r="AA56" s="14">
+      <c r="AA61" s="14">
         <v>24</v>
       </c>
-      <c r="AB56" s="4">
+      <c r="AB61" s="4">
         <v>25</v>
       </c>
-      <c r="AC56" s="14">
+      <c r="AC61" s="14">
         <v>26</v>
       </c>
-      <c r="AD56" s="4">
+      <c r="AD61" s="4">
         <v>27</v>
       </c>
-      <c r="AE56" s="14">
+      <c r="AE61" s="14">
         <v>28</v>
       </c>
-      <c r="AF56" s="4">
+      <c r="AF61" s="4">
         <v>29</v>
       </c>
-      <c r="AG56" s="14">
+      <c r="AG61" s="14">
         <v>30</v>
       </c>
-      <c r="AH56" s="4">
+      <c r="AH61" s="4">
         <v>31</v>
       </c>
-      <c r="AI56" s="4">
+      <c r="AI61" s="4">
         <v>32</v>
       </c>
-      <c r="AJ56" s="4">
+      <c r="AJ61" s="4">
         <v>33</v>
       </c>
-      <c r="AK56" s="4">
+      <c r="AK61" s="4">
         <v>34</v>
       </c>
-      <c r="AL56" s="4">
+      <c r="AL61" s="4">
         <v>35</v>
       </c>
-      <c r="AM56" s="4">
+      <c r="AM61" s="4">
         <v>36</v>
       </c>
-      <c r="AN56" s="4">
+      <c r="AN61" s="4">
         <v>37</v>
       </c>
-      <c r="AO56" s="4">
+      <c r="AO61" s="4">
         <v>38</v>
       </c>
-      <c r="AP56" s="4">
+      <c r="AP61" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-      <c r="N57" s="4">
-        <v>0</v>
-      </c>
-      <c r="O57" s="4">
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="4">
-        <v>0</v>
-      </c>
-      <c r="R57" s="4">
-        <v>0</v>
-      </c>
-      <c r="S57" s="14">
-        <v>0</v>
-      </c>
-      <c r="T57" s="14">
-        <v>0</v>
-      </c>
-      <c r="U57" s="14">
-        <v>0</v>
-      </c>
-      <c r="V57" s="14">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14">
-        <v>0</v>
-      </c>
-      <c r="X57" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="89">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="89">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="89">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="89">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="89">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="89">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="90">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="90">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
-      <c r="AP57" s="4"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X58" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="73"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
-      <c r="AC58" s="73"/>
-      <c r="AD58" s="73"/>
-      <c r="AE58" s="73"/>
-      <c r="AF58" s="73"/>
-      <c r="AG58" s="73"/>
-      <c r="AH58" s="73"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0</v>
+      </c>
+      <c r="R62" s="4">
+        <v>0</v>
+      </c>
+      <c r="S62" s="14">
+        <v>0</v>
+      </c>
+      <c r="T62" s="14">
+        <v>0</v>
+      </c>
+      <c r="U62" s="14">
+        <v>0</v>
+      </c>
+      <c r="V62" s="14">
+        <v>0</v>
+      </c>
+      <c r="W62" s="14">
+        <v>0</v>
+      </c>
+      <c r="X62" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="58">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="58">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="58">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="58">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="58">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="59">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="59">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
+      <c r="Q63" s="67"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="T63" s="67"/>
+      <c r="U63" s="67"/>
+      <c r="V63" s="67"/>
+      <c r="W63" s="67"/>
+      <c r="X63" s="67"/>
+      <c r="Y63" s="67"/>
+      <c r="Z63" s="67"/>
+      <c r="AA63" s="67">
+        <v>53</v>
+      </c>
+      <c r="AB63" s="67"/>
+      <c r="AC63" s="67"/>
+      <c r="AD63" s="67"/>
+      <c r="AE63" s="67"/>
+      <c r="AF63" s="67"/>
+      <c r="AG63" s="67"/>
+      <c r="AH63" s="67"/>
+      <c r="AI63" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ63" s="67"/>
+      <c r="AK63" s="67"/>
+      <c r="AL63" s="67"/>
+      <c r="AM63" s="67"/>
+      <c r="AN63" s="67"/>
+      <c r="AO63" s="67"/>
+      <c r="AP63" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="99">
+    <mergeCell ref="AI63:AP63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="AA63:AH63"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="S51:Z51"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="S39:Z39"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AI39:AP39"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -5854,48 +6267,51 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:L12"/>
-    <mergeCell ref="X58:AH58"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="X49:AH49"/>
-    <mergeCell ref="X39:AH39"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="K55:R55"/>
-    <mergeCell ref="S55:Z55"/>
-    <mergeCell ref="AA55:AH55"/>
-    <mergeCell ref="AI55:AP55"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="S50:Z50"/>
-    <mergeCell ref="AA50:AH50"/>
-    <mergeCell ref="AI40:AP40"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="S45:Z45"/>
-    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="X53:AH53"/>
+    <mergeCell ref="X41:AH41"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:Z33"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="AA60:AH60"/>
+    <mergeCell ref="AI60:AP60"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="AA54:AH54"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="AA48:AH48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="AA42:AH42"/>
     <mergeCell ref="AI45:AP45"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="K40:R40"/>
-    <mergeCell ref="S40:Z40"/>
-    <mergeCell ref="AA40:AH40"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E15:L16"/>
     <mergeCell ref="E17:L18"/>
     <mergeCell ref="AI30:AP30"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="S35:Z35"/>
-    <mergeCell ref="AA35:AH35"/>
-    <mergeCell ref="AI35:AP35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="S36:Z36"/>
+    <mergeCell ref="AA36:AH36"/>
+    <mergeCell ref="AI36:AP36"/>
     <mergeCell ref="C30:J30"/>
     <mergeCell ref="K30:R30"/>
     <mergeCell ref="S30:Z30"/>
     <mergeCell ref="AA30:AH30"/>
+    <mergeCell ref="AI33:AP33"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5908,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView topLeftCell="I5" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5923,151 +6339,151 @@
   <sheetData>
     <row r="1" spans="1:44 16382:16384" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P1" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S1" s="32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T1" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V1" s="32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W1" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="X1" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA1" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD1" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE1" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AH1" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI1" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AJ1" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AK1" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AL1" s="40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AM1" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AN1" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO1" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:44 16382:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" s="32">
         <v>8</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -6084,19 +6500,19 @@
       <c r="U2" s="32"/>
       <c r="V2" s="32"/>
       <c r="W2" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X2" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="32"/>
       <c r="AC2" s="32"/>
@@ -6106,14 +6522,14 @@
       <c r="AG2" s="32"/>
       <c r="AH2" s="32"/>
       <c r="AI2" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AJ2" s="33"/>
       <c r="AK2" s="32"/>
       <c r="AL2" s="32"/>
       <c r="AM2" s="32"/>
       <c r="AN2" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO2" s="32"/>
     </row>
@@ -6125,22 +6541,22 @@
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3" s="35">
         <v>8</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" s="35">
         <v>4</v>
@@ -6149,28 +6565,28 @@
         <v>35</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U3" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V3" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="W3" s="35"/>
       <c r="X3" s="35"/>
@@ -6190,7 +6606,7 @@
       <c r="AL3" s="35"/>
       <c r="AM3" s="35"/>
       <c r="AN3" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO3" s="35"/>
       <c r="XFB3" s="31"/>
@@ -6205,22 +6621,22 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K4" s="35">
         <v>13</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M4" s="35">
         <v>11</v>
@@ -6229,28 +6645,28 @@
         <v>35</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T4" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U4" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V4" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W4" s="35"/>
       <c r="X4" s="35"/>
@@ -6265,14 +6681,14 @@
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AJ4" s="36"/>
       <c r="AK4" s="35"/>
       <c r="AL4" s="35"/>
       <c r="AM4" s="35"/>
       <c r="AN4" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO4" s="35"/>
       <c r="XFB4" s="31"/>
@@ -6281,26 +6697,26 @@
     </row>
     <row r="5" spans="1:44 16382:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="32">
         <v>8</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -6317,46 +6733,46 @@
       <c r="U5" s="32"/>
       <c r="V5" s="32"/>
       <c r="W5" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X5" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="32"/>
       <c r="AB5" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC5" s="32"/>
       <c r="AD5" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AE5" s="32"/>
       <c r="AF5" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG5" s="32"/>
       <c r="AH5" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI5" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AJ5" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK5" s="32"/>
       <c r="AL5" s="32"/>
       <c r="AM5" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN5" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO5" s="32"/>
     </row>
@@ -6368,22 +6784,22 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K6" s="38">
         <v>23</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M6" s="38">
         <v>9</v>
@@ -6392,28 +6808,28 @@
         <v>35</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S6" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U6" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V6" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W6" s="38"/>
       <c r="X6" s="38"/>
@@ -6421,7 +6837,7 @@
       <c r="Z6" s="38"/>
       <c r="AA6" s="38"/>
       <c r="AB6" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC6" s="38"/>
       <c r="AD6" s="39"/>
@@ -6435,7 +6851,7 @@
       <c r="AL6" s="38"/>
       <c r="AM6" s="38"/>
       <c r="AN6" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO6" s="38"/>
       <c r="XFB6" s="31"/>
@@ -6450,22 +6866,22 @@
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K7" s="38">
         <v>32</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M7" s="38">
         <v>8</v>
@@ -6474,28 +6890,28 @@
         <v>35</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S7" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U7" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V7" s="38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W7" s="38"/>
       <c r="X7" s="38"/>
@@ -6509,7 +6925,7 @@
       <c r="AF7" s="38"/>
       <c r="AG7" s="38"/>
       <c r="AH7" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI7" s="38"/>
       <c r="AJ7" s="39"/>
@@ -6524,26 +6940,26 @@
     </row>
     <row r="8" spans="1:44 16382:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="32">
         <v>8</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -6560,16 +6976,16 @@
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
       <c r="W8" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X8" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="32"/>
       <c r="AB8" s="32"/>
@@ -6579,7 +6995,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI8" s="32"/>
       <c r="AJ8" s="33"/>
@@ -6587,7 +7003,7 @@
       <c r="AL8" s="32"/>
       <c r="AM8" s="32"/>
       <c r="AN8" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO8" s="32"/>
     </row>
@@ -6599,22 +7015,22 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K9" s="42">
         <v>33</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M9" s="42">
         <v>15</v>
@@ -6623,28 +7039,28 @@
         <v>35</v>
       </c>
       <c r="O9" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P9" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q9" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R9" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S9" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T9" s="42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U9" s="42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V9" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
@@ -6658,7 +7074,7 @@
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
       <c r="AH9" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI9" s="42"/>
       <c r="AJ9" s="43"/>
@@ -6666,7 +7082,7 @@
       <c r="AL9" s="42"/>
       <c r="AM9" s="42"/>
       <c r="AN9" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO9" s="42"/>
     </row>
@@ -6678,22 +7094,22 @@
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="42">
         <v>40</v>
       </c>
       <c r="L10" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M10" s="42">
         <v>8</v>
@@ -6702,28 +7118,28 @@
         <v>35</v>
       </c>
       <c r="O10" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P10" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U10" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V10" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
@@ -6737,7 +7153,7 @@
       <c r="AF10" s="42"/>
       <c r="AG10" s="42"/>
       <c r="AH10" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AI10" s="42"/>
       <c r="AJ10" s="43"/>
@@ -6745,7 +7161,7 @@
       <c r="AL10" s="42"/>
       <c r="AM10" s="42"/>
       <c r="AN10" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO10" s="42"/>
     </row>
@@ -6757,22 +7173,22 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11" s="42">
         <v>48</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M11" s="42">
         <v>8</v>
@@ -6781,28 +7197,28 @@
         <v>35</v>
       </c>
       <c r="O11" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P11" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R11" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S11" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T11" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U11" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V11" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W11" s="42"/>
       <c r="X11" s="42"/>
@@ -6822,22 +7238,22 @@
       <c r="AL11" s="42"/>
       <c r="AM11" s="42"/>
       <c r="AN11" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AO11" s="42"/>
     </row>
     <row r="12" spans="1:44 16382:16384" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="32">
         <v>10</v>
@@ -6847,7 +7263,7 @@
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
@@ -6867,16 +7283,16 @@
       <c r="X12" s="32"/>
       <c r="Y12" s="32"/>
       <c r="Z12" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA12" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB12" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AC12" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
@@ -6892,7 +7308,7 @@
       <c r="AO12" s="32"/>
       <c r="AP12" s="32"/>
       <c r="AQ12" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR12" s="32"/>
     </row>
@@ -6904,22 +7320,22 @@
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J13" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45" t="s">
         <v>79</v>
-      </c>
-      <c r="K13" s="45">
-        <v>0</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="45">
         <v>1</v>
@@ -6928,39 +7344,39 @@
         <v>35</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R13" s="45">
         <v>1</v>
       </c>
       <c r="S13" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U13" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V13" s="45"/>
       <c r="W13" s="45"/>
       <c r="X13" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y13" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
       <c r="AB13" s="45"/>
       <c r="AC13" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="45"/>
       <c r="AE13" s="45"/>
@@ -6986,13 +7402,13 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J14" s="45">
         <v>0</v>
@@ -7001,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" s="45">
         <v>3</v>
@@ -7010,31 +7426,31 @@
         <v>35</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S14" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U14" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V14" s="45"/>
       <c r="W14" s="45"/>
       <c r="X14" s="45"/>
       <c r="Y14" s="45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
@@ -7064,13 +7480,13 @@
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J15" s="45">
         <v>2</v>
@@ -7079,7 +7495,7 @@
         <v>21</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M15" s="45">
         <v>11</v>
@@ -7091,38 +7507,38 @@
         <v>0.2</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V15" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W15" s="45"/>
       <c r="X15" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Y15" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
       <c r="AB15" s="45"/>
       <c r="AC15" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD15" s="45"/>
       <c r="AE15" s="45"/>
@@ -7148,13 +7564,13 @@
       <c r="E16" s="45"/>
       <c r="F16" s="45"/>
       <c r="G16" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J16" s="45">
         <v>2</v>
@@ -7163,7 +7579,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" s="45">
         <v>1</v>
@@ -7172,39 +7588,39 @@
         <v>35</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R16" s="45">
         <v>1</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V16" s="45"/>
       <c r="W16" s="45"/>
       <c r="X16" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y16" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
       <c r="AB16" s="45"/>
       <c r="AC16" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD16" s="45"/>
       <c r="AE16" s="45"/>
@@ -7230,13 +7646,13 @@
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" s="45">
         <v>0</v>
@@ -7245,7 +7661,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M17" s="45">
         <v>3</v>
@@ -7254,39 +7670,39 @@
         <v>35</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R17" s="45">
         <v>7</v>
       </c>
       <c r="S17" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V17" s="45"/>
       <c r="W17" s="45"/>
       <c r="X17" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y17" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
       <c r="AB17" s="45"/>
       <c r="AC17" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD17" s="45"/>
       <c r="AE17" s="45"/>
@@ -7312,13 +7728,13 @@
       <c r="E18" s="45"/>
       <c r="F18" s="45"/>
       <c r="G18" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J18" s="45">
         <v>0</v>
@@ -7327,7 +7743,7 @@
         <v>7</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M18" s="45">
         <v>1</v>
@@ -7336,39 +7752,39 @@
         <v>35</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R18" s="45">
         <v>1</v>
       </c>
       <c r="S18" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V18" s="45"/>
       <c r="W18" s="45"/>
       <c r="X18" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y18" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
       <c r="AB18" s="45"/>
       <c r="AC18" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD18" s="45"/>
       <c r="AE18" s="45"/>
@@ -7388,16 +7804,16 @@
     </row>
     <row r="19" spans="1:44" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="32">
         <v>10</v>
@@ -7407,7 +7823,7 @@
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -7427,16 +7843,16 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
       <c r="Z19" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA19" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB19" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AC19" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD19" s="32"/>
       <c r="AE19" s="32"/>
@@ -7452,7 +7868,7 @@
       <c r="AO19" s="32"/>
       <c r="AP19" s="32"/>
       <c r="AQ19" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AR19" s="32"/>
     </row>
@@ -7464,13 +7880,13 @@
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="48">
         <v>0</v>
@@ -7479,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M20" s="48">
         <v>3</v>
@@ -7488,41 +7904,41 @@
         <v>35</v>
       </c>
       <c r="O20" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R20" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S20" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T20" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U20" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V20" s="48"/>
       <c r="W20" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X20" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y20" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z20" s="48"/>
       <c r="AA20" s="48"/>
       <c r="AB20" s="48"/>
       <c r="AC20" s="48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD20" s="48"/>
       <c r="AE20" s="48"/>
@@ -7548,22 +7964,22 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K21" s="48">
         <v>40</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M21" s="48">
         <v>8</v>
@@ -7572,37 +7988,37 @@
         <v>35</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R21" s="48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S21" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="T21" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U21" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V21" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W21" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X21" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y21" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z21" s="48"/>
       <c r="AA21" s="48"/>

--- a/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
+++ b/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
@@ -2242,6 +2242,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2257,60 +2266,41 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,37 +2312,47 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2388,8 +2388,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>99750</xdr:rowOff>
     </xdr:to>
@@ -2780,13 +2780,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="67" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2795,123 +2795,116 @@
       <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B2:B5"/>
@@ -2926,6 +2919,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,20 +2937,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="5" max="5" width="3.375" customWidth="1"/>
     <col min="6" max="6" width="2.375" customWidth="1"/>
     <col min="7" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="5.375" customWidth="1"/>
-    <col min="10" max="10" width="4.25" customWidth="1"/>
+    <col min="9" max="9" width="3.75" customWidth="1"/>
+    <col min="10" max="10" width="2.75" customWidth="1"/>
     <col min="11" max="22" width="2.625" customWidth="1"/>
+    <col min="23" max="23" width="7.125" customWidth="1"/>
     <col min="24" max="42" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3088,16 +3089,16 @@
       <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -3131,26 +3132,26 @@
       <c r="AQ10" s="10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="77"/>
+      <c r="C11" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="85">
         <v>1</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -3184,18 +3185,18 @@
       <c r="AQ11" s="11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="85"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3229,26 +3230,26 @@
       <c r="AQ12" s="11"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="83" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="85">
         <v>1</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3282,18 +3283,18 @@
       <c r="AQ13" s="11"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3327,26 +3328,26 @@
       <c r="AQ14" s="11"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="83" t="s">
+      <c r="B15" s="77"/>
+      <c r="C15" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="79">
         <v>4</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -3380,18 +3381,18 @@
       <c r="AQ15" s="11"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="90"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -3425,26 +3426,26 @@
       <c r="AQ16" s="11"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="83" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="79">
         <v>1</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -3478,18 +3479,18 @@
       <c r="AQ17" s="11"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="90"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -3523,26 +3524,26 @@
       <c r="AQ18" s="11"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="77"/>
+      <c r="C19" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="79">
         <v>1</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -3576,18 +3577,18 @@
       <c r="AQ19" s="11"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -3621,26 +3622,26 @@
       <c r="AQ20" s="11"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="86" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -3674,18 +3675,18 @@
       <c r="AQ21" s="12"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -3786,66 +3787,66 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="75" t="s">
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="75" t="s">
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="75" t="s">
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="76"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="75" t="s">
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ30" s="76"/>
-      <c r="AK30" s="76"/>
-      <c r="AL30" s="76"/>
-      <c r="AM30" s="76"/>
-      <c r="AN30" s="76"/>
-      <c r="AO30" s="76"/>
-      <c r="AP30" s="77"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="90"/>
+      <c r="AM30" s="90"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="91"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="4">
@@ -3971,7 +3972,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="94"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="52">
         <v>1</v>
       </c>
@@ -4079,57 +4080,57 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="95" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95" t="s">
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95">
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88">
         <v>53</v>
       </c>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95" t="s">
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="95"/>
+      <c r="AJ33" s="88"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="88"/>
+      <c r="AN33" s="88"/>
+      <c r="AO33" s="88"/>
+      <c r="AP33" s="88"/>
     </row>
     <row r="34" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
@@ -4185,65 +4186,65 @@
       <c r="AP35" s="2"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="63" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="75" t="s">
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="75" t="s">
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="75" t="s">
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="77"/>
-      <c r="AI36" s="75" t="s">
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="90"/>
+      <c r="AF36" s="90"/>
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ36" s="76"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="76"/>
-      <c r="AM36" s="76"/>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="77"/>
+      <c r="AJ36" s="90"/>
+      <c r="AK36" s="90"/>
+      <c r="AL36" s="90"/>
+      <c r="AM36" s="90"/>
+      <c r="AN36" s="90"/>
+      <c r="AO36" s="90"/>
+      <c r="AP36" s="91"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="4">
@@ -4369,7 +4370,7 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="97"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="52">
         <v>1</v>
       </c>
@@ -4477,57 +4478,57 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="67" t="s">
+      <c r="B39" s="74"/>
+      <c r="C39" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67" t="s">
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67" t="s">
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67">
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70">
         <v>53</v>
       </c>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="67"/>
-      <c r="AF39" s="67"/>
-      <c r="AG39" s="67"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="67" t="s">
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
+      <c r="AJ39" s="70"/>
+      <c r="AK39" s="70"/>
+      <c r="AL39" s="70"/>
+      <c r="AM39" s="70"/>
+      <c r="AN39" s="70"/>
+      <c r="AO39" s="70"/>
+      <c r="AP39" s="70"/>
     </row>
     <row r="40" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
@@ -4555,17 +4556,17 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="96"/>
-      <c r="AB40" s="96"/>
-      <c r="AC40" s="96"/>
-      <c r="AD40" s="96"/>
-      <c r="AE40" s="96"/>
-      <c r="AF40" s="96"/>
-      <c r="AG40" s="96"/>
-      <c r="AH40" s="96"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
       <c r="AK40" s="6"/>
@@ -4603,19 +4604,19 @@
       <c r="W41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X41" s="82" t="s">
+      <c r="X41" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="82"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
-      <c r="AH41" s="82"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="87"/>
+      <c r="AC41" s="87"/>
+      <c r="AD41" s="87"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="87"/>
+      <c r="AG41" s="87"/>
+      <c r="AH41" s="87"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
@@ -4626,66 +4627,66 @@
       <c r="AP41" s="2"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="63" t="s">
         <v>203</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="75" t="s">
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="75" t="s">
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="77"/>
-      <c r="AA42" s="75" t="s">
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="76"/>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76"/>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="76"/>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="77"/>
-      <c r="AI42" s="75" t="s">
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="90"/>
+      <c r="AE42" s="90"/>
+      <c r="AF42" s="90"/>
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ42" s="76"/>
-      <c r="AK42" s="76"/>
-      <c r="AL42" s="76"/>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="77"/>
+      <c r="AJ42" s="90"/>
+      <c r="AK42" s="90"/>
+      <c r="AL42" s="90"/>
+      <c r="AM42" s="90"/>
+      <c r="AN42" s="90"/>
+      <c r="AO42" s="90"/>
+      <c r="AP42" s="91"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="4">
@@ -4811,7 +4812,7 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="97"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="52">
         <v>1</v>
       </c>
@@ -4872,7 +4873,7 @@
       <c r="V44" s="14">
         <v>0</v>
       </c>
-      <c r="W44" s="98">
+      <c r="W44" s="65">
         <v>1</v>
       </c>
       <c r="X44" s="60">
@@ -4919,57 +4920,57 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="67" t="s">
+      <c r="B45" s="74"/>
+      <c r="C45" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67" t="s">
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67" t="s">
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="67">
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70">
         <v>53</v>
       </c>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="67"/>
-      <c r="AE45" s="67"/>
-      <c r="AF45" s="67"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67" t="s">
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="67"/>
-      <c r="AP45" s="67"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
     </row>
     <row r="46" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
@@ -5025,68 +5026,68 @@
       <c r="AP47" s="2"/>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A48" s="93" t="s">
+      <c r="A48" s="63" t="s">
         <v>204</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78" t="s">
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="78"/>
-      <c r="S48" s="78" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="78"/>
-      <c r="U48" s="78"/>
-      <c r="V48" s="78"/>
-      <c r="W48" s="78"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="78" t="s">
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB48" s="78"/>
-      <c r="AC48" s="78"/>
-      <c r="AD48" s="78"/>
-      <c r="AE48" s="78"/>
-      <c r="AF48" s="78"/>
-      <c r="AG48" s="78"/>
-      <c r="AH48" s="78"/>
-      <c r="AI48" s="78" t="s">
+      <c r="AB48" s="92"/>
+      <c r="AC48" s="92"/>
+      <c r="AD48" s="92"/>
+      <c r="AE48" s="92"/>
+      <c r="AF48" s="92"/>
+      <c r="AG48" s="92"/>
+      <c r="AH48" s="92"/>
+      <c r="AI48" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AJ48" s="78"/>
-      <c r="AK48" s="78"/>
-      <c r="AL48" s="78"/>
-      <c r="AM48" s="78"/>
-      <c r="AN48" s="78"/>
-      <c r="AO48" s="78"/>
-      <c r="AP48" s="78"/>
+      <c r="AJ48" s="92"/>
+      <c r="AK48" s="92"/>
+      <c r="AL48" s="92"/>
+      <c r="AM48" s="92"/>
+      <c r="AN48" s="92"/>
+      <c r="AO48" s="92"/>
+      <c r="AP48" s="92"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="94" t="s">
+      <c r="B49" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4">
@@ -5212,7 +5213,7 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="94"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="52">
         <v>1</v>
       </c>
@@ -5320,57 +5321,57 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="67" t="s">
+      <c r="B51" s="71"/>
+      <c r="C51" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67" t="s">
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="70"/>
+      <c r="R51" s="70"/>
+      <c r="S51" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
-      <c r="Z51" s="67"/>
-      <c r="AA51" s="67">
+      <c r="T51" s="70"/>
+      <c r="U51" s="70"/>
+      <c r="V51" s="70"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="70"/>
+      <c r="Y51" s="70"/>
+      <c r="Z51" s="70"/>
+      <c r="AA51" s="70">
         <v>53</v>
       </c>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
-      <c r="AD51" s="67"/>
-      <c r="AE51" s="67"/>
-      <c r="AF51" s="67"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67" t="s">
+      <c r="AB51" s="70"/>
+      <c r="AC51" s="70"/>
+      <c r="AD51" s="70"/>
+      <c r="AE51" s="70"/>
+      <c r="AF51" s="70"/>
+      <c r="AG51" s="70"/>
+      <c r="AH51" s="70"/>
+      <c r="AI51" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="67"/>
-      <c r="AP51" s="67"/>
+      <c r="AJ51" s="70"/>
+      <c r="AK51" s="70"/>
+      <c r="AL51" s="70"/>
+      <c r="AM51" s="70"/>
+      <c r="AN51" s="70"/>
+      <c r="AO51" s="70"/>
+      <c r="AP51" s="70"/>
     </row>
     <row r="52" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
@@ -5446,19 +5447,19 @@
       <c r="W53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X53" s="79" t="s">
+      <c r="X53" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
-      <c r="AC53" s="79"/>
-      <c r="AD53" s="79"/>
-      <c r="AE53" s="79"/>
-      <c r="AF53" s="79"/>
-      <c r="AG53" s="79"/>
-      <c r="AH53" s="79"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="86"/>
+      <c r="AB53" s="86"/>
+      <c r="AC53" s="86"/>
+      <c r="AD53" s="86"/>
+      <c r="AE53" s="86"/>
+      <c r="AF53" s="86"/>
+      <c r="AG53" s="86"/>
+      <c r="AH53" s="86"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
@@ -5469,66 +5470,66 @@
       <c r="AP53" s="2"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="63" t="s">
         <v>203</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="75" t="s">
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="75" t="s">
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="76"/>
-      <c r="U54" s="76"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="76"/>
-      <c r="X54" s="76"/>
-      <c r="Y54" s="76"/>
-      <c r="Z54" s="77"/>
-      <c r="AA54" s="75" t="s">
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90"/>
+      <c r="W54" s="90"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="91"/>
+      <c r="AA54" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB54" s="76"/>
-      <c r="AC54" s="76"/>
-      <c r="AD54" s="76"/>
-      <c r="AE54" s="76"/>
-      <c r="AF54" s="76"/>
-      <c r="AG54" s="76"/>
-      <c r="AH54" s="77"/>
-      <c r="AI54" s="75" t="s">
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="90"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="90"/>
+      <c r="AH54" s="91"/>
+      <c r="AI54" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="76"/>
-      <c r="AK54" s="76"/>
-      <c r="AL54" s="76"/>
-      <c r="AM54" s="76"/>
-      <c r="AN54" s="76"/>
-      <c r="AO54" s="76"/>
-      <c r="AP54" s="77"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="90"/>
+      <c r="AM54" s="90"/>
+      <c r="AN54" s="90"/>
+      <c r="AO54" s="90"/>
+      <c r="AP54" s="91"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="4">
@@ -5654,7 +5655,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="97"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="52">
         <v>1</v>
       </c>
@@ -5715,7 +5716,7 @@
       <c r="V56" s="14">
         <v>0</v>
       </c>
-      <c r="W56" s="98">
+      <c r="W56" s="65">
         <v>1</v>
       </c>
       <c r="X56" s="60">
@@ -5762,57 +5763,57 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="62"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="67" t="s">
+      <c r="B57" s="74"/>
+      <c r="C57" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67" t="s">
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67" t="s">
+      <c r="L57" s="70"/>
+      <c r="M57" s="70"/>
+      <c r="N57" s="70"/>
+      <c r="O57" s="70"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67">
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
+      <c r="V57" s="70"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="70"/>
+      <c r="Y57" s="70"/>
+      <c r="Z57" s="70"/>
+      <c r="AA57" s="70">
         <v>53</v>
       </c>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
-      <c r="AE57" s="67"/>
-      <c r="AF57" s="67"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67" t="s">
+      <c r="AB57" s="70"/>
+      <c r="AC57" s="70"/>
+      <c r="AD57" s="70"/>
+      <c r="AE57" s="70"/>
+      <c r="AF57" s="70"/>
+      <c r="AG57" s="70"/>
+      <c r="AH57" s="70"/>
+      <c r="AI57" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="67"/>
-      <c r="AM57" s="67"/>
-      <c r="AN57" s="67"/>
-      <c r="AO57" s="67"/>
-      <c r="AP57" s="67"/>
+      <c r="AJ57" s="70"/>
+      <c r="AK57" s="70"/>
+      <c r="AL57" s="70"/>
+      <c r="AM57" s="70"/>
+      <c r="AN57" s="70"/>
+      <c r="AO57" s="70"/>
+      <c r="AP57" s="70"/>
     </row>
     <row r="58" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
@@ -5866,66 +5867,66 @@
       <c r="AP59" s="2"/>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A60" s="93" t="s">
+      <c r="A60" s="63" t="s">
         <v>206</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78" t="s">
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78" t="s">
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="T60" s="78"/>
-      <c r="U60" s="78"/>
-      <c r="V60" s="78"/>
-      <c r="W60" s="78"/>
-      <c r="X60" s="78"/>
-      <c r="Y60" s="78"/>
-      <c r="Z60" s="78"/>
-      <c r="AA60" s="78" t="s">
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
+      <c r="W60" s="92"/>
+      <c r="X60" s="92"/>
+      <c r="Y60" s="92"/>
+      <c r="Z60" s="92"/>
+      <c r="AA60" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB60" s="78"/>
-      <c r="AC60" s="78"/>
-      <c r="AD60" s="78"/>
-      <c r="AE60" s="78"/>
-      <c r="AF60" s="78"/>
-      <c r="AG60" s="78"/>
-      <c r="AH60" s="78"/>
-      <c r="AI60" s="78" t="s">
+      <c r="AB60" s="92"/>
+      <c r="AC60" s="92"/>
+      <c r="AD60" s="92"/>
+      <c r="AE60" s="92"/>
+      <c r="AF60" s="92"/>
+      <c r="AG60" s="92"/>
+      <c r="AH60" s="92"/>
+      <c r="AI60" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AJ60" s="78"/>
-      <c r="AK60" s="78"/>
-      <c r="AL60" s="78"/>
-      <c r="AM60" s="78"/>
-      <c r="AN60" s="78"/>
-      <c r="AO60" s="78"/>
-      <c r="AP60" s="78"/>
+      <c r="AJ60" s="92"/>
+      <c r="AK60" s="92"/>
+      <c r="AL60" s="92"/>
+      <c r="AM60" s="92"/>
+      <c r="AN60" s="92"/>
+      <c r="AO60" s="92"/>
+      <c r="AP60" s="92"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="4">
@@ -6051,7 +6052,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="94"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="4">
         <v>0</v>
       </c>
@@ -6159,145 +6160,60 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="67" t="s">
+      <c r="B63" s="71"/>
+      <c r="C63" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67" t="s">
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67" t="s">
+      <c r="L63" s="70"/>
+      <c r="M63" s="70"/>
+      <c r="N63" s="70"/>
+      <c r="O63" s="70"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="67"/>
-      <c r="X63" s="67"/>
-      <c r="Y63" s="67"/>
-      <c r="Z63" s="67"/>
-      <c r="AA63" s="67">
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70">
         <v>53</v>
       </c>
-      <c r="AB63" s="67"/>
-      <c r="AC63" s="67"/>
-      <c r="AD63" s="67"/>
-      <c r="AE63" s="67"/>
-      <c r="AF63" s="67"/>
-      <c r="AG63" s="67"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67" t="s">
+      <c r="AB63" s="70"/>
+      <c r="AC63" s="70"/>
+      <c r="AD63" s="70"/>
+      <c r="AE63" s="70"/>
+      <c r="AF63" s="70"/>
+      <c r="AG63" s="70"/>
+      <c r="AH63" s="70"/>
+      <c r="AI63" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="AJ63" s="67"/>
-      <c r="AK63" s="67"/>
-      <c r="AL63" s="67"/>
-      <c r="AM63" s="67"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="67"/>
-      <c r="AP63" s="67"/>
+      <c r="AJ63" s="70"/>
+      <c r="AK63" s="70"/>
+      <c r="AL63" s="70"/>
+      <c r="AM63" s="70"/>
+      <c r="AN63" s="70"/>
+      <c r="AO63" s="70"/>
+      <c r="AP63" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="AI63:AP63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="K63:R63"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="AA63:AH63"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="S57:Z57"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="S51:Z51"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="AI51:AP51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="S45:Z45"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="S39:Z39"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AI39:AP39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:L20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:L14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:L12"/>
-    <mergeCell ref="X53:AH53"/>
-    <mergeCell ref="X41:AH41"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="S33:Z33"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="AI54:AP54"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="AA60:AH60"/>
-    <mergeCell ref="AI60:AP60"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="S54:Z54"/>
-    <mergeCell ref="AA54:AH54"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="AI57:AP57"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:Z48"/>
-    <mergeCell ref="AA48:AH48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AI45:AP45"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E15:L16"/>
     <mergeCell ref="E17:L18"/>
@@ -6312,6 +6228,91 @@
     <mergeCell ref="S30:Z30"/>
     <mergeCell ref="AA30:AH30"/>
     <mergeCell ref="AI33:AP33"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="AA48:AH48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AI45:AP45"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="AA60:AH60"/>
+    <mergeCell ref="AI60:AP60"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="AA54:AH54"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="X41:AH41"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:Z33"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:L12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:L14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:L20"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="S39:Z39"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AI39:AP39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="S51:Z51"/>
+    <mergeCell ref="X53:AH53"/>
+    <mergeCell ref="AI63:AP63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="AA63:AH63"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
+++ b/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
@@ -2266,17 +2266,67 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2286,73 +2336,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2426,16 +2426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>46566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>300566</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>159014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2458,8 +2458,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13354050" y="6781800"/>
-          <a:ext cx="10058400" cy="5448300"/>
+          <a:off x="12243858" y="6580452"/>
+          <a:ext cx="10083271" cy="5405437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,10 +2481,10 @@
       <sheetName val="History"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2905,6 +2905,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B2:B5"/>
@@ -2919,13 +2926,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA31" zoomScale="144" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -3132,26 +3132,26 @@
       <c r="AQ10" s="10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="87">
         <v>1</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -3185,18 +3185,18 @@
       <c r="AQ11" s="11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3230,26 +3230,26 @@
       <c r="AQ12" s="11"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78" t="s">
+      <c r="B13" s="86"/>
+      <c r="C13" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="87">
         <v>1</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3283,18 +3283,18 @@
       <c r="AQ13" s="11"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3328,26 +3328,26 @@
       <c r="AQ14" s="11"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78" t="s">
+      <c r="B15" s="86"/>
+      <c r="C15" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="93">
         <v>4</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -3381,18 +3381,18 @@
       <c r="AQ15" s="11"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -3426,26 +3426,26 @@
       <c r="AQ16" s="11"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="79">
+      <c r="D17" s="93">
         <v>1</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -3479,18 +3479,18 @@
       <c r="AQ17" s="11"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -3524,26 +3524,26 @@
       <c r="AQ18" s="11"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="93">
         <v>1</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -3577,18 +3577,18 @@
       <c r="AQ19" s="11"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -3622,26 +3622,26 @@
       <c r="AQ20" s="11"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="D21" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -3675,18 +3675,18 @@
       <c r="AQ21" s="12"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -3793,60 +3793,60 @@
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="89" t="s">
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="89" t="s">
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="89" t="s">
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="89" t="s">
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="90"/>
-      <c r="AN30" s="90"/>
-      <c r="AO30" s="90"/>
-      <c r="AP30" s="91"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="80"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="4">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="71"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="52">
         <v>1</v>
       </c>
@@ -4080,57 +4080,57 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="88" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88" t="s">
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88" t="s">
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88">
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81">
         <v>53</v>
       </c>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="88"/>
-      <c r="AI33" s="88" t="s">
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="88"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="88"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
     </row>
     <row r="34" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
@@ -4192,59 +4192,59 @@
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="89" t="s">
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="89" t="s">
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="91"/>
-      <c r="AA36" s="89" t="s">
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="90"/>
-      <c r="AG36" s="90"/>
-      <c r="AH36" s="91"/>
-      <c r="AI36" s="89" t="s">
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="80"/>
+      <c r="AI36" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AJ36" s="90"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="90"/>
-      <c r="AM36" s="90"/>
-      <c r="AN36" s="90"/>
-      <c r="AO36" s="90"/>
-      <c r="AP36" s="91"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="79"/>
+      <c r="AL36" s="79"/>
+      <c r="AM36" s="79"/>
+      <c r="AN36" s="79"/>
+      <c r="AO36" s="79"/>
+      <c r="AP36" s="80"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="4">
@@ -4370,7 +4370,7 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="73"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="52">
         <v>1</v>
       </c>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="70" t="s">
         <v>211</v>
       </c>
@@ -4604,19 +4604,19 @@
       <c r="W41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X41" s="87" t="s">
+      <c r="X41" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="Y41" s="87"/>
-      <c r="Z41" s="87"/>
-      <c r="AA41" s="87"/>
-      <c r="AB41" s="87"/>
-      <c r="AC41" s="87"/>
-      <c r="AD41" s="87"/>
-      <c r="AE41" s="87"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="87"/>
-      <c r="AH41" s="87"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="83"/>
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="83"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
@@ -4633,60 +4633,60 @@
       <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="C42" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="89" t="s">
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="89" t="s">
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="91"/>
-      <c r="AA42" s="89" t="s">
+      <c r="T42" s="79"/>
+      <c r="U42" s="79"/>
+      <c r="V42" s="79"/>
+      <c r="W42" s="79"/>
+      <c r="X42" s="79"/>
+      <c r="Y42" s="79"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="90"/>
-      <c r="AC42" s="90"/>
-      <c r="AD42" s="90"/>
-      <c r="AE42" s="90"/>
-      <c r="AF42" s="90"/>
-      <c r="AG42" s="90"/>
-      <c r="AH42" s="91"/>
-      <c r="AI42" s="89" t="s">
+      <c r="AB42" s="79"/>
+      <c r="AC42" s="79"/>
+      <c r="AD42" s="79"/>
+      <c r="AE42" s="79"/>
+      <c r="AF42" s="79"/>
+      <c r="AG42" s="79"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AJ42" s="90"/>
-      <c r="AK42" s="90"/>
-      <c r="AL42" s="90"/>
-      <c r="AM42" s="90"/>
-      <c r="AN42" s="90"/>
-      <c r="AO42" s="90"/>
-      <c r="AP42" s="91"/>
+      <c r="AJ42" s="79"/>
+      <c r="AK42" s="79"/>
+      <c r="AL42" s="79"/>
+      <c r="AM42" s="79"/>
+      <c r="AN42" s="79"/>
+      <c r="AO42" s="79"/>
+      <c r="AP42" s="80"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="4">
@@ -4812,7 +4812,7 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="73"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="52">
         <v>1</v>
       </c>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
-      <c r="B45" s="74"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="70" t="s">
         <v>211</v>
       </c>
@@ -5032,62 +5032,62 @@
       <c r="B48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92" t="s">
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92" t="s">
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="92"/>
-      <c r="U48" s="92"/>
-      <c r="V48" s="92"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="92" t="s">
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AB48" s="92"/>
-      <c r="AC48" s="92"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="92"/>
-      <c r="AF48" s="92"/>
-      <c r="AG48" s="92"/>
-      <c r="AH48" s="92"/>
-      <c r="AI48" s="92" t="s">
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="82"/>
+      <c r="AD48" s="82"/>
+      <c r="AE48" s="82"/>
+      <c r="AF48" s="82"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AJ48" s="92"/>
-      <c r="AK48" s="92"/>
-      <c r="AL48" s="92"/>
-      <c r="AM48" s="92"/>
-      <c r="AN48" s="92"/>
-      <c r="AO48" s="92"/>
-      <c r="AP48" s="92"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="82"/>
+      <c r="AL48" s="82"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="82"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="82"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4">
@@ -5213,7 +5213,7 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="71"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="52">
         <v>1</v>
       </c>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
-      <c r="B51" s="71"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="70" t="s">
         <v>211</v>
       </c>
@@ -5447,19 +5447,19 @@
       <c r="W53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X53" s="86" t="s">
+      <c r="X53" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Y53" s="86"/>
-      <c r="Z53" s="86"/>
-      <c r="AA53" s="86"/>
-      <c r="AB53" s="86"/>
-      <c r="AC53" s="86"/>
-      <c r="AD53" s="86"/>
-      <c r="AE53" s="86"/>
-      <c r="AF53" s="86"/>
-      <c r="AG53" s="86"/>
-      <c r="AH53" s="86"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="98"/>
+      <c r="AD53" s="98"/>
+      <c r="AE53" s="98"/>
+      <c r="AF53" s="98"/>
+      <c r="AG53" s="98"/>
+      <c r="AH53" s="98"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
@@ -5476,60 +5476,60 @@
       <c r="B54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="89" t="s">
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="90"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="91"/>
-      <c r="S54" s="89" t="s">
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="90"/>
-      <c r="U54" s="90"/>
-      <c r="V54" s="90"/>
-      <c r="W54" s="90"/>
-      <c r="X54" s="90"/>
-      <c r="Y54" s="90"/>
-      <c r="Z54" s="91"/>
-      <c r="AA54" s="89" t="s">
+      <c r="T54" s="79"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="79"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="79"/>
+      <c r="Y54" s="79"/>
+      <c r="Z54" s="80"/>
+      <c r="AA54" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB54" s="90"/>
-      <c r="AC54" s="90"/>
-      <c r="AD54" s="90"/>
-      <c r="AE54" s="90"/>
-      <c r="AF54" s="90"/>
-      <c r="AG54" s="90"/>
-      <c r="AH54" s="91"/>
-      <c r="AI54" s="89" t="s">
+      <c r="AB54" s="79"/>
+      <c r="AC54" s="79"/>
+      <c r="AD54" s="79"/>
+      <c r="AE54" s="79"/>
+      <c r="AF54" s="79"/>
+      <c r="AG54" s="79"/>
+      <c r="AH54" s="80"/>
+      <c r="AI54" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="90"/>
-      <c r="AK54" s="90"/>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
-      <c r="AN54" s="90"/>
-      <c r="AO54" s="90"/>
-      <c r="AP54" s="91"/>
+      <c r="AJ54" s="79"/>
+      <c r="AK54" s="79"/>
+      <c r="AL54" s="79"/>
+      <c r="AM54" s="79"/>
+      <c r="AN54" s="79"/>
+      <c r="AO54" s="79"/>
+      <c r="AP54" s="80"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="95" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="4">
@@ -5655,7 +5655,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="52">
         <v>1</v>
       </c>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="62"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="70" t="s">
         <v>211</v>
       </c>
@@ -5873,60 +5873,60 @@
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="92" t="s">
+      <c r="C60" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92" t="s">
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="82"/>
+      <c r="J60" s="82"/>
+      <c r="K60" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="92" t="s">
+      <c r="L60" s="82"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="82"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="T60" s="92"/>
-      <c r="U60" s="92"/>
-      <c r="V60" s="92"/>
-      <c r="W60" s="92"/>
-      <c r="X60" s="92"/>
-      <c r="Y60" s="92"/>
-      <c r="Z60" s="92"/>
-      <c r="AA60" s="92" t="s">
+      <c r="T60" s="82"/>
+      <c r="U60" s="82"/>
+      <c r="V60" s="82"/>
+      <c r="W60" s="82"/>
+      <c r="X60" s="82"/>
+      <c r="Y60" s="82"/>
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AB60" s="92"/>
-      <c r="AC60" s="92"/>
-      <c r="AD60" s="92"/>
-      <c r="AE60" s="92"/>
-      <c r="AF60" s="92"/>
-      <c r="AG60" s="92"/>
-      <c r="AH60" s="92"/>
-      <c r="AI60" s="92" t="s">
+      <c r="AB60" s="82"/>
+      <c r="AC60" s="82"/>
+      <c r="AD60" s="82"/>
+      <c r="AE60" s="82"/>
+      <c r="AF60" s="82"/>
+      <c r="AG60" s="82"/>
+      <c r="AH60" s="82"/>
+      <c r="AI60" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AJ60" s="92"/>
-      <c r="AK60" s="92"/>
-      <c r="AL60" s="92"/>
-      <c r="AM60" s="92"/>
-      <c r="AN60" s="92"/>
-      <c r="AO60" s="92"/>
-      <c r="AP60" s="92"/>
+      <c r="AJ60" s="82"/>
+      <c r="AK60" s="82"/>
+      <c r="AL60" s="82"/>
+      <c r="AM60" s="82"/>
+      <c r="AN60" s="82"/>
+      <c r="AO60" s="82"/>
+      <c r="AP60" s="82"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="71" t="s">
+      <c r="B61" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="4">
@@ -6052,7 +6052,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="71"/>
+      <c r="B62" s="84"/>
       <c r="C62" s="4">
         <v>0</v>
       </c>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="71"/>
+      <c r="B63" s="84"/>
       <c r="C63" s="70" t="s">
         <v>211</v>
       </c>
@@ -6214,6 +6214,91 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="AI63:AP63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="AA63:AH63"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="S51:Z51"/>
+    <mergeCell ref="X53:AH53"/>
+    <mergeCell ref="AI39:AP39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:L20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:L14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:L12"/>
+    <mergeCell ref="X41:AH41"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:Z33"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="S39:Z39"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="AA60:AH60"/>
+    <mergeCell ref="AI60:AP60"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="AA54:AH54"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="AA48:AH48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AI45:AP45"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E15:L16"/>
     <mergeCell ref="E17:L18"/>
@@ -6228,91 +6313,6 @@
     <mergeCell ref="S30:Z30"/>
     <mergeCell ref="AA30:AH30"/>
     <mergeCell ref="AI33:AP33"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:Z48"/>
-    <mergeCell ref="AA48:AH48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AI45:AP45"/>
-    <mergeCell ref="AI54:AP54"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="AA60:AH60"/>
-    <mergeCell ref="AI60:AP60"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="S54:Z54"/>
-    <mergeCell ref="AA54:AH54"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="AI57:AP57"/>
-    <mergeCell ref="X41:AH41"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="S33:Z33"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:L12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:L14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:L20"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="S39:Z39"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AI39:AP39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="AI51:AP51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="S45:Z45"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="S57:Z57"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="S51:Z51"/>
-    <mergeCell ref="X53:AH53"/>
-    <mergeCell ref="AI63:AP63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="K63:R63"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="AA63:AH63"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6325,7 +6325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>

--- a/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
+++ b/22KW-Dyno - MCU/Document/MCU TorqueControl CAN协议V0.1_20231023.xlsx
@@ -2266,57 +2266,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2328,31 +2315,44 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2426,16 +2426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>46566</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>124619</xdr:rowOff>
+      <xdr:rowOff>58473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>300566</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>159014</xdr:rowOff>
+      <xdr:rowOff>92868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2458,7 +2458,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12243858" y="6580452"/>
+          <a:off x="13116983" y="6514306"/>
           <a:ext cx="10083271" cy="5405437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2905,13 +2905,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B2:B5"/>
@@ -2926,6 +2919,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2937,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA31" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="144" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3132,26 +3132,26 @@
       <c r="AQ10" s="10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="86">
         <v>1</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -3185,18 +3185,18 @@
       <c r="AQ11" s="11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3230,26 +3230,26 @@
       <c r="AQ12" s="11"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="85" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="86">
         <v>1</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3283,18 +3283,18 @@
       <c r="AQ13" s="11"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3328,26 +3328,26 @@
       <c r="AQ14" s="11"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="85" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="80">
         <v>4</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -3381,18 +3381,18 @@
       <c r="AQ15" s="11"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -3426,26 +3426,26 @@
       <c r="AQ16" s="11"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="85" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="80">
         <v>1</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -3479,18 +3479,18 @@
       <c r="AQ17" s="11"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -3524,26 +3524,26 @@
       <c r="AQ18" s="11"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="85" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="80">
         <v>1</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="E19" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -3577,18 +3577,18 @@
       <c r="AQ19" s="11"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -3622,26 +3622,26 @@
       <c r="AQ20" s="11"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="88" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="90" t="s">
+      <c r="E21" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -3675,18 +3675,18 @@
       <c r="AQ21" s="12"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="88"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -3793,60 +3793,60 @@
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="78" t="s">
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="78" t="s">
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="78" t="s">
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="78" t="s">
+      <c r="AB30" s="90"/>
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="90"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="90"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="91"/>
+      <c r="AI30" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
-      <c r="AP30" s="80"/>
+      <c r="AJ30" s="90"/>
+      <c r="AK30" s="90"/>
+      <c r="AL30" s="90"/>
+      <c r="AM30" s="90"/>
+      <c r="AN30" s="90"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="91"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="4">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="84"/>
+      <c r="B32" s="71"/>
       <c r="C32" s="52">
         <v>1</v>
       </c>
@@ -4080,57 +4080,57 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="81" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81" t="s">
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="T33" s="81"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81">
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88">
         <v>53</v>
       </c>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-      <c r="AF33" s="81"/>
-      <c r="AG33" s="81"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81" t="s">
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="81"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="81"/>
-      <c r="AO33" s="81"/>
-      <c r="AP33" s="81"/>
+      <c r="AJ33" s="88"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="88"/>
+      <c r="AN33" s="88"/>
+      <c r="AO33" s="88"/>
+      <c r="AP33" s="88"/>
     </row>
     <row r="34" spans="1:42" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
@@ -4192,59 +4192,59 @@
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="78" t="s">
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="78" t="s">
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="80"/>
-      <c r="AA36" s="78" t="s">
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="80"/>
-      <c r="AI36" s="78" t="s">
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="90"/>
+      <c r="AF36" s="90"/>
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="91"/>
+      <c r="AI36" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
-      <c r="AP36" s="80"/>
+      <c r="AJ36" s="90"/>
+      <c r="AK36" s="90"/>
+      <c r="AL36" s="90"/>
+      <c r="AM36" s="90"/>
+      <c r="AN36" s="90"/>
+      <c r="AO36" s="90"/>
+      <c r="AP36" s="91"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="4">
@@ -4370,7 +4370,7 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="96"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="52">
         <v>1</v>
       </c>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
-      <c r="B39" s="97"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="70" t="s">
         <v>211</v>
       </c>
@@ -4604,19 +4604,19 @@
       <c r="W41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X41" s="83" t="s">
+      <c r="X41" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="Y41" s="83"/>
-      <c r="Z41" s="83"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="83"/>
-      <c r="AC41" s="83"/>
-      <c r="AD41" s="83"/>
-      <c r="AE41" s="83"/>
-      <c r="AF41" s="83"/>
-      <c r="AG41" s="83"/>
-      <c r="AH41" s="83"/>
+      <c r="Y41" s="87"/>
+      <c r="Z41" s="87"/>
+      <c r="AA41" s="87"/>
+      <c r="AB41" s="87"/>
+      <c r="AC41" s="87"/>
+      <c r="AD41" s="87"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="87"/>
+      <c r="AG41" s="87"/>
+      <c r="AH41" s="87"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
       <c r="AK41" s="2"/>
@@ -4633,60 +4633,60 @@
       <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="78" t="s">
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="80"/>
-      <c r="S42" s="78" t="s">
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="79"/>
-      <c r="U42" s="79"/>
-      <c r="V42" s="79"/>
-      <c r="W42" s="79"/>
-      <c r="X42" s="79"/>
-      <c r="Y42" s="79"/>
-      <c r="Z42" s="80"/>
-      <c r="AA42" s="78" t="s">
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="91"/>
+      <c r="AA42" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB42" s="79"/>
-      <c r="AC42" s="79"/>
-      <c r="AD42" s="79"/>
-      <c r="AE42" s="79"/>
-      <c r="AF42" s="79"/>
-      <c r="AG42" s="79"/>
-      <c r="AH42" s="80"/>
-      <c r="AI42" s="78" t="s">
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="90"/>
+      <c r="AE42" s="90"/>
+      <c r="AF42" s="90"/>
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ42" s="79"/>
-      <c r="AK42" s="79"/>
-      <c r="AL42" s="79"/>
-      <c r="AM42" s="79"/>
-      <c r="AN42" s="79"/>
-      <c r="AO42" s="79"/>
-      <c r="AP42" s="80"/>
+      <c r="AJ42" s="90"/>
+      <c r="AK42" s="90"/>
+      <c r="AL42" s="90"/>
+      <c r="AM42" s="90"/>
+      <c r="AN42" s="90"/>
+      <c r="AO42" s="90"/>
+      <c r="AP42" s="91"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="4">
@@ -4812,7 +4812,7 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="96"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="52">
         <v>1</v>
       </c>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
-      <c r="B45" s="97"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="70" t="s">
         <v>211</v>
       </c>
@@ -5032,62 +5032,62 @@
       <c r="B48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82" t="s">
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82" t="s">
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82" t="s">
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="82"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="82"/>
-      <c r="AF48" s="82"/>
-      <c r="AG48" s="82"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="82" t="s">
+      <c r="AB48" s="92"/>
+      <c r="AC48" s="92"/>
+      <c r="AD48" s="92"/>
+      <c r="AE48" s="92"/>
+      <c r="AF48" s="92"/>
+      <c r="AG48" s="92"/>
+      <c r="AH48" s="92"/>
+      <c r="AI48" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="82"/>
-      <c r="AM48" s="82"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="82"/>
+      <c r="AJ48" s="92"/>
+      <c r="AK48" s="92"/>
+      <c r="AL48" s="92"/>
+      <c r="AM48" s="92"/>
+      <c r="AN48" s="92"/>
+      <c r="AO48" s="92"/>
+      <c r="AP48" s="92"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="4">
@@ -5213,7 +5213,7 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="84"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="52">
         <v>1</v>
       </c>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="62"/>
-      <c r="B51" s="84"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="70" t="s">
         <v>211</v>
       </c>
@@ -5447,19 +5447,19 @@
       <c r="W53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X53" s="98" t="s">
+      <c r="X53" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="98"/>
-      <c r="AB53" s="98"/>
-      <c r="AC53" s="98"/>
-      <c r="AD53" s="98"/>
-      <c r="AE53" s="98"/>
-      <c r="AF53" s="98"/>
-      <c r="AG53" s="98"/>
-      <c r="AH53" s="98"/>
+      <c r="Y53" s="75"/>
+      <c r="Z53" s="75"/>
+      <c r="AA53" s="75"/>
+      <c r="AB53" s="75"/>
+      <c r="AC53" s="75"/>
+      <c r="AD53" s="75"/>
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="75"/>
+      <c r="AH53" s="75"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
       <c r="AK53" s="2"/>
@@ -5476,60 +5476,60 @@
       <c r="B54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="78" t="s">
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="79"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="78" t="s">
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="91"/>
+      <c r="S54" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T54" s="79"/>
-      <c r="U54" s="79"/>
-      <c r="V54" s="79"/>
-      <c r="W54" s="79"/>
-      <c r="X54" s="79"/>
-      <c r="Y54" s="79"/>
-      <c r="Z54" s="80"/>
-      <c r="AA54" s="78" t="s">
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90"/>
+      <c r="W54" s="90"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="91"/>
+      <c r="AA54" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AB54" s="79"/>
-      <c r="AC54" s="79"/>
-      <c r="AD54" s="79"/>
-      <c r="AE54" s="79"/>
-      <c r="AF54" s="79"/>
-      <c r="AG54" s="79"/>
-      <c r="AH54" s="80"/>
-      <c r="AI54" s="78" t="s">
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="90"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="90"/>
+      <c r="AH54" s="91"/>
+      <c r="AI54" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AJ54" s="79"/>
-      <c r="AK54" s="79"/>
-      <c r="AL54" s="79"/>
-      <c r="AM54" s="79"/>
-      <c r="AN54" s="79"/>
-      <c r="AO54" s="79"/>
-      <c r="AP54" s="80"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="90"/>
+      <c r="AM54" s="90"/>
+      <c r="AN54" s="90"/>
+      <c r="AO54" s="90"/>
+      <c r="AP54" s="91"/>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="4">
@@ -5655,7 +5655,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="96"/>
+      <c r="B56" s="73"/>
       <c r="C56" s="52">
         <v>1</v>
       </c>
@@ -5681,28 +5681,28 @@
         <v>1</v>
       </c>
       <c r="K56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="14">
         <v>0</v>
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="Y56" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" s="58">
         <v>0</v>
@@ -5763,7 +5763,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="62"/>
-      <c r="B57" s="97"/>
+      <c r="B57" s="74"/>
       <c r="C57" s="70" t="s">
         <v>211</v>
       </c>
@@ -5873,60 +5873,60 @@
       <c r="B60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="82" t="s">
+      <c r="C60" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82" t="s">
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82" t="s">
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="T60" s="82"/>
-      <c r="U60" s="82"/>
-      <c r="V60" s="82"/>
-      <c r="W60" s="82"/>
-      <c r="X60" s="82"/>
-      <c r="Y60" s="82"/>
-      <c r="Z60" s="82"/>
-      <c r="AA60" s="82" t="s">
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
+      <c r="W60" s="92"/>
+      <c r="X60" s="92"/>
+      <c r="Y60" s="92"/>
+      <c r="Z60" s="92"/>
+      <c r="AA60" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AB60" s="82"/>
-      <c r="AC60" s="82"/>
-      <c r="AD60" s="82"/>
-      <c r="AE60" s="82"/>
-      <c r="AF60" s="82"/>
-      <c r="AG60" s="82"/>
-      <c r="AH60" s="82"/>
-      <c r="AI60" s="82" t="s">
+      <c r="AB60" s="92"/>
+      <c r="AC60" s="92"/>
+      <c r="AD60" s="92"/>
+      <c r="AE60" s="92"/>
+      <c r="AF60" s="92"/>
+      <c r="AG60" s="92"/>
+      <c r="AH60" s="92"/>
+      <c r="AI60" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="AJ60" s="82"/>
-      <c r="AK60" s="82"/>
-      <c r="AL60" s="82"/>
-      <c r="AM60" s="82"/>
-      <c r="AN60" s="82"/>
-      <c r="AO60" s="82"/>
-      <c r="AP60" s="82"/>
+      <c r="AJ60" s="92"/>
+      <c r="AK60" s="92"/>
+      <c r="AL60" s="92"/>
+      <c r="AM60" s="92"/>
+      <c r="AN60" s="92"/>
+      <c r="AO60" s="92"/>
+      <c r="AP60" s="92"/>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="84" t="s">
+      <c r="B61" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="4">
@@ -6052,7 +6052,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="84"/>
+      <c r="B62" s="71"/>
       <c r="C62" s="4">
         <v>0</v>
       </c>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
-      <c r="B63" s="84"/>
+      <c r="B63" s="71"/>
       <c r="C63" s="70" t="s">
         <v>211</v>
       </c>
@@ -6214,91 +6214,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="AI63:AP63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="K63:R63"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="AA63:AH63"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="S57:Z57"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="S51:Z51"/>
-    <mergeCell ref="X53:AH53"/>
-    <mergeCell ref="AI39:AP39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="AA51:AH51"/>
-    <mergeCell ref="AI51:AP51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:R45"/>
-    <mergeCell ref="S45:Z45"/>
-    <mergeCell ref="AA45:AH45"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:L20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:L22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:L14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:L12"/>
-    <mergeCell ref="X41:AH41"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="S33:Z33"/>
-    <mergeCell ref="AA33:AH33"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="K39:R39"/>
-    <mergeCell ref="S39:Z39"/>
-    <mergeCell ref="AA39:AH39"/>
-    <mergeCell ref="AI54:AP54"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="AA60:AH60"/>
-    <mergeCell ref="AI60:AP60"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="K54:R54"/>
-    <mergeCell ref="S54:Z54"/>
-    <mergeCell ref="AA54:AH54"/>
-    <mergeCell ref="AA57:AH57"/>
-    <mergeCell ref="AI57:AP57"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:Z48"/>
-    <mergeCell ref="AA48:AH48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="AA42:AH42"/>
-    <mergeCell ref="AI45:AP45"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E15:L16"/>
     <mergeCell ref="E17:L18"/>
@@ -6313,6 +6228,91 @@
     <mergeCell ref="S30:Z30"/>
     <mergeCell ref="AA30:AH30"/>
     <mergeCell ref="AI33:AP33"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="AA42:AH42"/>
+    <mergeCell ref="AI45:AP45"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:Z48"/>
+    <mergeCell ref="AA48:AH48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="AA60:AH60"/>
+    <mergeCell ref="AI60:AP60"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="K54:R54"/>
+    <mergeCell ref="S54:Z54"/>
+    <mergeCell ref="AA54:AH54"/>
+    <mergeCell ref="AA57:AH57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:Z33"/>
+    <mergeCell ref="AA33:AH33"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:L12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:L14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:L22"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:L20"/>
+    <mergeCell ref="AI39:AP39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="AA51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:R45"/>
+    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="AA45:AH45"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="X41:AH41"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="K39:R39"/>
+    <mergeCell ref="S39:Z39"/>
+    <mergeCell ref="AA39:AH39"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="S51:Z51"/>
+    <mergeCell ref="X53:AH53"/>
+    <mergeCell ref="AI63:AP63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:R63"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="AA63:AH63"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
